--- a/Câu hỏi AI Theoriq.xlsx
+++ b/Câu hỏi AI Theoriq.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation-base-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18270" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28005" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet Ai Theoriq" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5118" uniqueCount="3094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5804" uniqueCount="3777">
   <si>
     <t>Bondex Agent</t>
   </si>
@@ -9063,21 +9063,6 @@
     <t>Đáp lại khi muốn kết thúc hội thoại</t>
   </si>
   <si>
-    <t>Thanks for your time! Have a great day.</t>
-  </si>
-  <si>
-    <t>Thanks again! I won’t take up more of your time.</t>
-  </si>
-  <si>
-    <t>I appreciate it! Take care.</t>
-  </si>
-  <si>
-    <t>Thank you! That’s all I needed.</t>
-  </si>
-  <si>
-    <t>You’ve been a great help—thanks a lot!</t>
-  </si>
-  <si>
     <t>Oh, you’re a lifesaver—thank you!</t>
   </si>
   <si>
@@ -9174,21 +9159,6 @@
     <t>I’ve never thought about it that way—thanks for opening my eyes!</t>
   </si>
   <si>
-    <t>Thanks again for your help—this was super useful!</t>
-  </si>
-  <si>
-    <t>I really appreciate your time. Have a great day!</t>
-  </si>
-  <si>
-    <t>This was exactly what I needed—thanks a ton!</t>
-  </si>
-  <si>
-    <t>Thanks so much! Let me know if there’s anything I can help you with.</t>
-  </si>
-  <si>
-    <t>Thanks a lot! I hope I can return the favor sometime.</t>
-  </si>
-  <si>
     <t>That’s a good point! Could you expand on that a bit?</t>
   </si>
   <si>
@@ -9267,21 +9237,6 @@
     <t>Thanks! Where can I find more details on this topic?</t>
   </si>
   <si>
-    <t>Thanks again! Let’s chat more about this another time.</t>
-  </si>
-  <si>
-    <t>You’ve been super helpful—I’ll get back to you if I have more questions.</t>
-  </si>
-  <si>
-    <t>I appreciate your help—let’s catch up soon!</t>
-  </si>
-  <si>
-    <t>Thanks a ton! If anything else comes to mind, let me know!</t>
-  </si>
-  <si>
-    <t>This has been really helpful—talk to you soon!</t>
-  </si>
-  <si>
     <t>You’ve really helped me out—thank you so much!</t>
   </si>
   <si>
@@ -9310,6 +9265,2100 @@
   </si>
   <si>
     <t>Thanks a lot—you’ve got all the answers, huh?</t>
+  </si>
+  <si>
+    <t>Thank you so much for your answer, it really helps me understand my work better.</t>
+  </si>
+  <si>
+    <t>I appreciate your insight, it makes the process much clearer for me.</t>
+  </si>
+  <si>
+    <t>Your explanation is spot on, I can apply this to my current project.</t>
+  </si>
+  <si>
+    <t>Thanks for clarifying that, it’s made a world of difference for me.</t>
+  </si>
+  <si>
+    <t>I’m grateful for your input, it’s very insightful.</t>
+  </si>
+  <si>
+    <t>I learned a lot from your answer, thank you for the detailed response.</t>
+  </si>
+  <si>
+    <t>You’ve given me a lot to think about, thanks for that!</t>
+  </si>
+  <si>
+    <t>Thank you, your response has really shed light on my issue.</t>
+  </si>
+  <si>
+    <t>That explanation was perfect, exactly what I needed.</t>
+  </si>
+  <si>
+    <t>You really made this easier for me to understand, thank you so much.</t>
+  </si>
+  <si>
+    <t>Thanks for breaking that down, it’s really helpful.</t>
+  </si>
+  <si>
+    <t>Your response was very informative, thank you!</t>
+  </si>
+  <si>
+    <t>I value your answer, it’s really adding clarity to my understanding.</t>
+  </si>
+  <si>
+    <t>That was incredibly helpful, I appreciate your effort.</t>
+  </si>
+  <si>
+    <t>Thank you, this is exactly what I was looking for.</t>
+  </si>
+  <si>
+    <t>Thanks, that helps me see things from a different perspective.</t>
+  </si>
+  <si>
+    <t>You’ve got a great way of explaining things, thank you.</t>
+  </si>
+  <si>
+    <t>I find your answer extremely valuable, thanks for sharing.</t>
+  </si>
+  <si>
+    <t>Thank you, this explanation is very thorough and clear.</t>
+  </si>
+  <si>
+    <t>I feel more confident about my project now, thanks to your help.</t>
+  </si>
+  <si>
+    <t>You have a talent for making complex topics simple, thank you!</t>
+  </si>
+  <si>
+    <t>Thanks, your insights are always so helpful.</t>
+  </si>
+  <si>
+    <t>That’s very helpful, I’m learning a lot from you.</t>
+  </si>
+  <si>
+    <t>Thank you, I’ll definitely use this information.</t>
+  </si>
+  <si>
+    <t>You’ve made my day with that answer, it’s exactly what I needed.</t>
+  </si>
+  <si>
+    <t>Thanks for your help, it’s really improved my understanding.</t>
+  </si>
+  <si>
+    <t>I appreciate your perspective, it’s very insightful.</t>
+  </si>
+  <si>
+    <t>You always explain things in a way that I can understand, thanks!</t>
+  </si>
+  <si>
+    <t>That answer was perfect, thank you for making it so easy to grasp.</t>
+  </si>
+  <si>
+    <t>Your response is very helpful, thank you for your time.</t>
+  </si>
+  <si>
+    <t>Thank you for your help, I understand it much better now.</t>
+  </si>
+  <si>
+    <t>Thanks for providing such a clear answer.</t>
+  </si>
+  <si>
+    <t>I really appreciate the effort you put into your answers.</t>
+  </si>
+  <si>
+    <t>That’s very useful information, thank you.</t>
+  </si>
+  <si>
+    <t>Thank you, you always seem to have the perfect answer.</t>
+  </si>
+  <si>
+    <t>You’ve been really helpful, thank you for that.</t>
+  </si>
+  <si>
+    <t>Your explanation makes total sense, thanks for clearing that up.</t>
+  </si>
+  <si>
+    <t>Thank you, this will be very useful for my project.</t>
+  </si>
+  <si>
+    <t>Thanks a lot, this has given me a new perspective on the topic.</t>
+  </si>
+  <si>
+    <t>I appreciate your help, it’s made a big difference for me.</t>
+  </si>
+  <si>
+    <t>That was a really insightful answer, thanks.</t>
+  </si>
+  <si>
+    <t>You’ve given me a clear direction, I appreciate it.</t>
+  </si>
+  <si>
+    <t>Thanks for guiding me through this, it’s very helpful.</t>
+  </si>
+  <si>
+    <t>Your knowledge is amazing, thanks for sharing it.</t>
+  </si>
+  <si>
+    <t>I value your answer very much, it’s exactly what I was looking for.</t>
+  </si>
+  <si>
+    <t>Thanks, your response has clarified a lot of my doubts.</t>
+  </si>
+  <si>
+    <t>You’ve provided a lot of useful information, thank you!</t>
+  </si>
+  <si>
+    <t>Thank you for explaining that in such an easy-to-understand way.</t>
+  </si>
+  <si>
+    <t>Your explanation was very helpful, thanks for making it so clear.</t>
+  </si>
+  <si>
+    <t>Thanks for your thorough response, it’s really helped me out.</t>
+  </si>
+  <si>
+    <t>I appreciate your thoughtful answer, it’s very insightful.</t>
+  </si>
+  <si>
+    <t>Thank you, I now have a much better understanding of the topic.</t>
+  </si>
+  <si>
+    <t>Your response has given me confidence, thanks!</t>
+  </si>
+  <si>
+    <t>Thanks for making that so much easier to understand.</t>
+  </si>
+  <si>
+    <t>Your help has made my job easier, thank you so much.</t>
+  </si>
+  <si>
+    <t>I’ve learned a lot from you today, thanks for being so helpful.</t>
+  </si>
+  <si>
+    <t>You’ve helped me understand this better than I expected, thank you.</t>
+  </si>
+  <si>
+    <t>Thanks for the clarification, it’s really helpful.</t>
+  </si>
+  <si>
+    <t>I can see things much more clearly now, thanks to your response.</t>
+  </si>
+  <si>
+    <t>Thanks, your answer is very informative.</t>
+  </si>
+  <si>
+    <t>You’ve really helped me solve my issue, thanks a lot.</t>
+  </si>
+  <si>
+    <t>I’m thankful for your guidance, it’s very helpful.</t>
+  </si>
+  <si>
+    <t>You always provide such valuable answers, thank you!</t>
+  </si>
+  <si>
+    <t>Thanks, this is exactly what I needed to proceed.</t>
+  </si>
+  <si>
+    <t>I’m grateful for your help, it’s making a big difference for me.</t>
+  </si>
+  <si>
+    <t>You have a great way of making things understandable, thank you.</t>
+  </si>
+  <si>
+    <t>Thank you, I really value your input on this matter.</t>
+  </si>
+  <si>
+    <t>Your explanation was fantastic, it’s helped me a lot.</t>
+  </si>
+  <si>
+    <t>Thanks for making that so clear, it’s exactly what I needed.</t>
+  </si>
+  <si>
+    <t>You’ve been incredibly helpful, thank you!</t>
+  </si>
+  <si>
+    <t>Thank you for making things clearer for me.</t>
+  </si>
+  <si>
+    <t>I appreciate your insight, it makes the subject much easier.</t>
+  </si>
+  <si>
+    <t>That’s exactly the answer I was looking for, thanks a lot!</t>
+  </si>
+  <si>
+    <t>You’ve really made this easier for me, thank you.</t>
+  </si>
+  <si>
+    <t>Thank you for such a detailed answer, it’s very helpful.</t>
+  </si>
+  <si>
+    <t>I’m more confident about this now, thanks to your help.</t>
+  </si>
+  <si>
+    <t>You’ve given me a lot of clarity, I appreciate it.</t>
+  </si>
+  <si>
+    <t>Thanks, your explanation was exactly what I needed.</t>
+  </si>
+  <si>
+    <t>That’s a great answer, thanks for helping me out.</t>
+  </si>
+  <si>
+    <t>I appreciate your effort in providing such a helpful response.</t>
+  </si>
+  <si>
+    <t>Thank you for helping me understand this topic better.</t>
+  </si>
+  <si>
+    <t>Thanks, your answer has been really helpful.</t>
+  </si>
+  <si>
+    <t>I’m grateful for your guidance, it’s made things clearer.</t>
+  </si>
+  <si>
+    <t>You’ve given me the direction I needed, thank you.</t>
+  </si>
+  <si>
+    <t>Thanks for your help, it’s made a real difference.</t>
+  </si>
+  <si>
+    <t>Your response is very informative, thank you!</t>
+  </si>
+  <si>
+    <t>I really value your input, it’s very helpful.</t>
+  </si>
+  <si>
+    <t>Thanks for making this easier to understand.</t>
+  </si>
+  <si>
+    <t>Your answer has given me confidence, thank you.</t>
+  </si>
+  <si>
+    <t>Thanks, I’ve learned a lot from your response.</t>
+  </si>
+  <si>
+    <t>You always provide such insightful answers, thank you!</t>
+  </si>
+  <si>
+    <t>I appreciate your help, it’s making a big impact on my work.</t>
+  </si>
+  <si>
+    <t>Thanks for your detailed answer, it’s really helpful.</t>
+  </si>
+  <si>
+    <t>You’ve made this a lot clearer for me, thanks.</t>
+  </si>
+  <si>
+    <t>Thank you, your answer is exactly what I needed.</t>
+  </si>
+  <si>
+    <t>I appreciate your knowledge, it’s very valuable to me.</t>
+  </si>
+  <si>
+    <t>Thanks, you’ve really clarified things for me.</t>
+  </si>
+  <si>
+    <t>Your response is very helpful, thank you so much!</t>
+  </si>
+  <si>
+    <t>Thanks for making things clearer for me.</t>
+  </si>
+  <si>
+    <t>I value your perspective, it’s very insightful.</t>
+  </si>
+  <si>
+    <t>Thank you so much for your help; it really enhanced my understanding of this subject.</t>
+  </si>
+  <si>
+    <t>I truly appreciate your insight; it has clarified many doubts I had.</t>
+  </si>
+  <si>
+    <t>Your explanation hit the mark, and now I can use this knowledge effectively in my project.</t>
+  </si>
+  <si>
+    <t>Thanks for taking the time to clarify that; it made a significant difference in my understanding.</t>
+  </si>
+  <si>
+    <t>I’m so grateful for your input—it’s really insightful and valuable.</t>
+  </si>
+  <si>
+    <t>I learned a lot from your response; thank you for such a detailed and thoughtful answer.</t>
+  </si>
+  <si>
+    <t>You’ve given me so much to consider, and I’m truly thankful for that perspective.</t>
+  </si>
+  <si>
+    <t>Thank you for shedding light on this topic—it really helped resolve my confusion.</t>
+  </si>
+  <si>
+    <t>That was the perfect explanation for what I needed; I’m so appreciative of your help.</t>
+  </si>
+  <si>
+    <t>You truly made this concept easier for me to grasp—thank you so much for your assistance.</t>
+  </si>
+  <si>
+    <t>Thanks for breaking down that complex information into something manageable; it was extremely helpful.</t>
+  </si>
+  <si>
+    <t>Your answer was not only informative but also very clear—thanks a lot!</t>
+  </si>
+  <si>
+    <t>I truly value your response; it has brought a lot of clarity to my thinking.</t>
+  </si>
+  <si>
+    <t>That was incredibly helpful, and I genuinely appreciate the time you took to explain it.</t>
+  </si>
+  <si>
+    <t>Thank you for your detailed response; it’s exactly the information I was seeking.</t>
+  </si>
+  <si>
+    <t>Your input has really helped me see things differently, and I appreciate it.</t>
+  </si>
+  <si>
+    <t>I love the way you explain things—it always makes complex topics seem simple. Thank you!</t>
+  </si>
+  <si>
+    <t>Your answer was extremely valuable, and I’m grateful that you shared it with me.</t>
+  </si>
+  <si>
+    <t>Thank you so much for such a thorough and clear explanation—it really helps.</t>
+  </si>
+  <si>
+    <t>I feel much more confident about my project now, and it’s thanks to your help.</t>
+  </si>
+  <si>
+    <t>You have a unique talent for simplifying complicated topics, and I’m grateful for that.</t>
+  </si>
+  <si>
+    <t>Your insights are always helpful, and I appreciate the effort you put into your answers.</t>
+  </si>
+  <si>
+    <t>That was so helpful—I’m learning a lot from you, and I couldn’t be happier.</t>
+  </si>
+  <si>
+    <t>Thank you for the information; I will definitely use it in my work.</t>
+  </si>
+  <si>
+    <t>Your answer made my day—it’s exactly what I needed to hear. Thank you so much.</t>
+  </si>
+  <si>
+    <t>Thanks for assisting me; your help has really improved my understanding.</t>
+  </si>
+  <si>
+    <t>Your perspective is insightful, and I appreciate you sharing it with me.</t>
+  </si>
+  <si>
+    <t>You always explain things in such a way that I can understand—thanks for that!</t>
+  </si>
+  <si>
+    <t>That was a perfect answer—thank you for making it so easy to understand.</t>
+  </si>
+  <si>
+    <t>Your response has been extremely helpful; I truly value the time you’ve given.</t>
+  </si>
+  <si>
+    <t>Thank you for your support; I understand things much better now because of your help.</t>
+  </si>
+  <si>
+    <t>Thanks for giving such a clear and direct answer.</t>
+  </si>
+  <si>
+    <t>I really appreciate the effort you put into all of your answers—it shows.</t>
+  </si>
+  <si>
+    <t>This information is really useful, and I thank you for providing it.</t>
+  </si>
+  <si>
+    <t>Your answers always seem to be perfect for the situation—thanks so much for that.</t>
+  </si>
+  <si>
+    <t>You’ve been incredibly helpful, and I thank you deeply.</t>
+  </si>
+  <si>
+    <t>Thanks for clearing that up—it makes complete sense now.</t>
+  </si>
+  <si>
+    <t>Your help has been invaluable for my project—thank you very much.</t>
+  </si>
+  <si>
+    <t>Thanks so much for giving me a new perspective; it’s exactly what I needed.</t>
+  </si>
+  <si>
+    <t>I appreciate your help so much—it’s made a big difference in my work.</t>
+  </si>
+  <si>
+    <t>Thanks for the insightful response—it’s very much appreciated.</t>
+  </si>
+  <si>
+    <t>You’ve given me a clear direction moving forward, and I can’t thank you enough.</t>
+  </si>
+  <si>
+    <t>Thanks for guiding me through this process—your help has been so beneficial.</t>
+  </si>
+  <si>
+    <t>I am amazed by your knowledge—thank you for sharing it with me.</t>
+  </si>
+  <si>
+    <t>Your answer is exactly what I needed to hear—thank you so much.</t>
+  </si>
+  <si>
+    <t>Thanks for clearing up my doubts; your response was very helpful.</t>
+  </si>
+  <si>
+    <t>You’ve provided such useful information, and I’m very grateful for it.</t>
+  </si>
+  <si>
+    <t>Thank you for explaining that in a way that was easy for me to grasp.</t>
+  </si>
+  <si>
+    <t>Your explanation was incredibly helpful—thanks for making it so straightforward.</t>
+  </si>
+  <si>
+    <t>Thanks for such a thorough response; it’s really helped me a lot.</t>
+  </si>
+  <si>
+    <t>I appreciate your thoughtful and insightful answer—thank you very much.</t>
+  </si>
+  <si>
+    <t>I now understand the topic much better, thanks to your detailed response.</t>
+  </si>
+  <si>
+    <t>Your answer gave me a lot of confidence—thank you for that.</t>
+  </si>
+  <si>
+    <t>Thanks for simplifying that concept—it’s much easier to understand now.</t>
+  </si>
+  <si>
+    <t>You’ve really made my work easier—thank you for your help.</t>
+  </si>
+  <si>
+    <t>I’ve learned so much from you today; your help has been invaluable.</t>
+  </si>
+  <si>
+    <t>Thanks for helping me understand this better than I could on my own.</t>
+  </si>
+  <si>
+    <t>Your clarification was very helpful—thank you for taking the time to explain it.</t>
+  </si>
+  <si>
+    <t>I see things much more clearly now, thanks to your insight.</t>
+  </si>
+  <si>
+    <t>Your answer was highly informative—thanks a lot!</t>
+  </si>
+  <si>
+    <t>You’ve really helped me resolve my issue, and I can’t thank you enough.</t>
+  </si>
+  <si>
+    <t>I’m grateful for your guidance; it’s really helped me navigate this.</t>
+  </si>
+  <si>
+    <t>Your answers are always so valuable—thank you for all your help.</t>
+  </si>
+  <si>
+    <t>Thanks so much—this information is exactly what I needed to proceed.</t>
+  </si>
+  <si>
+    <t>I’m grateful for the difference your help is making in my work—thank you.</t>
+  </si>
+  <si>
+    <t>You have a wonderful way of making things understandable—thanks for that.</t>
+  </si>
+  <si>
+    <t>I truly value your input on this matter—thank you for your time.</t>
+  </si>
+  <si>
+    <t>Your explanation was fantastic; I learned a lot from it.</t>
+  </si>
+  <si>
+    <t>Thank you for making that concept so clear—your help was exactly what I needed.</t>
+  </si>
+  <si>
+    <t>You’ve been incredibly supportive, and I appreciate it deeply.</t>
+  </si>
+  <si>
+    <t>Thanks for making things clearer; it’s really helped me move forward.</t>
+  </si>
+  <si>
+    <t>Your insight made the subject a lot easier for me—thank you.</t>
+  </si>
+  <si>
+    <t>That’s the perfect answer—thanks for pointing me in the right direction.</t>
+  </si>
+  <si>
+    <t>You’ve really made this easy for me—thanks so much for your help.</t>
+  </si>
+  <si>
+    <t>I appreciate the level of detail you provided; it’s very helpful to me.</t>
+  </si>
+  <si>
+    <t>Thanks to your help, I’m much more confident about tackling this issue.</t>
+  </si>
+  <si>
+    <t>You’ve brought a lot of clarity to the topic—thanks for that.</t>
+  </si>
+  <si>
+    <t>Thanks, your explanation was just what I needed to understand this better.</t>
+  </si>
+  <si>
+    <t>That was a great answer—thank you for helping me through it.</t>
+  </si>
+  <si>
+    <t>Your effort in helping me has made a big impact—thanks so much.</t>
+  </si>
+  <si>
+    <t>Thank you for explaining things so clearly; it’s really helped me out.</t>
+  </si>
+  <si>
+    <t>Thanks for your valuable answer—it’s made a big difference for me.</t>
+  </si>
+  <si>
+    <t>I’m grateful for your guidance, which has made everything clearer for me.</t>
+  </si>
+  <si>
+    <t>You’ve helped point me in the right direction—thanks for that.</t>
+  </si>
+  <si>
+    <t>Your help has made a world of difference, and I thank you for it.</t>
+  </si>
+  <si>
+    <t>Your response was very informative and valuable—thanks so much!</t>
+  </si>
+  <si>
+    <t>I appreciate your input; it’s really made things clearer for me.</t>
+  </si>
+  <si>
+    <t>Thanks for making the complex simple—it’s helped a lot.</t>
+  </si>
+  <si>
+    <t>You’ve given me a lot of confidence with your answer—thanks for that.</t>
+  </si>
+  <si>
+    <t>Thanks for taking the time to answer—I’ve learned a lot from you.</t>
+  </si>
+  <si>
+    <t>Your insights are always appreciated—thank you for sharing them.</t>
+  </si>
+  <si>
+    <t>Thanks for your detailed response—it’s been really helpful.</t>
+  </si>
+  <si>
+    <t>You’ve made everything much clearer—thanks for your help.</t>
+  </si>
+  <si>
+    <t>Thank you for giving me the exact answer I needed to move forward.</t>
+  </si>
+  <si>
+    <t>I value your knowledge highly—it’s very helpful in my work.</t>
+  </si>
+  <si>
+    <t>Thanks for clarifying that—you’ve really helped make things clear.</t>
+  </si>
+  <si>
+    <t>Your answer was very helpful; I appreciate the time you took.</t>
+  </si>
+  <si>
+    <t>Thanks for simplifying everything—it’s really helped me a lot.</t>
+  </si>
+  <si>
+    <t>I value your perspective; it’s brought me much-needed insight—thank you.</t>
+  </si>
+  <si>
+    <t>Thanks for shedding light on this topic—it’s made a huge difference.</t>
+  </si>
+  <si>
+    <t>Thanks for such a thorough explanation; it really added a lot of clarity to the topic.</t>
+  </si>
+  <si>
+    <t>Your input made all the difference; I appreciate how clearly you explained everything.</t>
+  </si>
+  <si>
+    <t>You’ve really helped me get a better understanding of this—thanks for that.</t>
+  </si>
+  <si>
+    <t>I appreciate your thoughtful response; it has really cleared up my confusion.</t>
+  </si>
+  <si>
+    <t>Thanks for providing such a detailed and insightful answer; it’s exactly what I needed.</t>
+  </si>
+  <si>
+    <t>Your response was so valuable to me—thank you for taking the time to help out.</t>
+  </si>
+  <si>
+    <t>Thanks for pointing me in the right direction—it’s made a huge difference in my understanding.</t>
+  </si>
+  <si>
+    <t>Your expertise really shines through in your answers—thank you for sharing your knowledge.</t>
+  </si>
+  <si>
+    <t>I can’t thank you enough for making that so easy to understand; your help is invaluable.</t>
+  </si>
+  <si>
+    <t>Thanks for your detailed explanation; it’s given me the clarity I needed to move forward.</t>
+  </si>
+  <si>
+    <t>Your ability to explain things clearly is remarkable; I’m grateful for your insight.</t>
+  </si>
+  <si>
+    <t>I truly appreciate your time and effort in helping me understand this better.</t>
+  </si>
+  <si>
+    <t>Thanks for your patience in breaking it all down; it’s been incredibly helpful.</t>
+  </si>
+  <si>
+    <t>Your answer has provided me with so much valuable information—thank you for that.</t>
+  </si>
+  <si>
+    <t>Thanks for your thoroughness; it really makes a difference in how I approach this.</t>
+  </si>
+  <si>
+    <t>Your answer was exactly what I needed to proceed confidently—thanks so much.</t>
+  </si>
+  <si>
+    <t>I appreciate your clarity; it’s made everything so much easier to understand.</t>
+  </si>
+  <si>
+    <t>Thanks for making such a complex topic seem simple and manageable.</t>
+  </si>
+  <si>
+    <t>Your insight has been very helpful in guiding my next steps—thanks for that.</t>
+  </si>
+  <si>
+    <t>Thanks for being so attentive to detail; it’s really helped me grasp the whole picture.</t>
+  </si>
+  <si>
+    <t>I feel much more at ease with this topic now, thanks to your explanation.</t>
+  </si>
+  <si>
+    <t>You’ve really shed light on an area I was struggling with—thank you for that.</t>
+  </si>
+  <si>
+    <t>Your response was exactly what I needed; I truly appreciate your help.</t>
+  </si>
+  <si>
+    <t>Thanks for making that concept accessible; it’s been a real game-changer for me.</t>
+  </si>
+  <si>
+    <t>I appreciate your help and the time you took to explain everything so clearly.</t>
+  </si>
+  <si>
+    <t>Thanks for making it so easy to follow; your answers always bring clarity.</t>
+  </si>
+  <si>
+    <t>You’ve given me a lot of useful insights—thank you for sharing them with me.</t>
+  </si>
+  <si>
+    <t>I’m grateful for your explanation—it’s helped me see things much more clearly.</t>
+  </si>
+  <si>
+    <t>Thanks for giving such a well-detailed response; it’s exactly what I was looking for.</t>
+  </si>
+  <si>
+    <t>Your answer was clear and concise, and it’s helped me a lot—thanks for that.</t>
+  </si>
+  <si>
+    <t>I appreciate your guidance; you’ve really made the process much simpler for me.</t>
+  </si>
+  <si>
+    <t>Your knowledge has been incredibly helpful in resolving my issue—thanks so much.</t>
+  </si>
+  <si>
+    <t>Thanks for taking the time to explain all the details; it’s made a big impact on my work.</t>
+  </si>
+  <si>
+    <t>Your response was just what I needed—thank you for being so insightful.</t>
+  </si>
+  <si>
+    <t>Thanks for providing such an easy-to-understand explanation—it’s been incredibly helpful.</t>
+  </si>
+  <si>
+    <t>I value your input, and it’s made a real difference in how I approach this project.</t>
+  </si>
+  <si>
+    <t>Your help has been instrumental in making this topic clearer—thanks a lot.</t>
+  </si>
+  <si>
+    <t>Thanks for simplifying that—it’s really helped me move forward confidently.</t>
+  </si>
+  <si>
+    <t>I appreciate your thorough explanation; it’s given me a new level of understanding.</t>
+  </si>
+  <si>
+    <t>You’ve provided me with a lot of clarity, and I’m thankful for that.</t>
+  </si>
+  <si>
+    <t>Thanks for making such a complicated concept much easier to comprehend.</t>
+  </si>
+  <si>
+    <t>Your answer has truly helped me see the bigger picture—thank you.</t>
+  </si>
+  <si>
+    <t>I appreciate your detailed response—it’s really helped me figure things out.</t>
+  </si>
+  <si>
+    <t>Thanks for explaining that so thoroughly; it’s been extremely valuable.</t>
+  </si>
+  <si>
+    <t>Your help has given me the direction I needed—thank you for your support.</t>
+  </si>
+  <si>
+    <t>I appreciate the clarity you provided—it’s exactly what I needed.</t>
+  </si>
+  <si>
+    <t>Thanks for your insightful response—it’s really opened my eyes to new possibilities.</t>
+  </si>
+  <si>
+    <t>Your explanation has been incredibly useful—thanks for making it so straightforward.</t>
+  </si>
+  <si>
+    <t>I appreciate your perspective; it’s made a big difference in how I understand this.</t>
+  </si>
+  <si>
+    <t>Thanks for your help; your insights have been very enlightening.</t>
+  </si>
+  <si>
+    <t>You’ve really helped me get unstuck—thanks for breaking it down so clearly.</t>
+  </si>
+  <si>
+    <t>I’m grateful for your assistance; your answer made all the difference.</t>
+  </si>
+  <si>
+    <t>Thanks for such a well-explained response—it’s exactly what I needed.</t>
+  </si>
+  <si>
+    <t>Your answer has really brought everything into focus for me—thanks for that.</t>
+  </si>
+  <si>
+    <t>Thanks for making it so easy to understand; I truly value your guidance.</t>
+  </si>
+  <si>
+    <t>Your response was spot on—it’s given me the confidence to move forward.</t>
+  </si>
+  <si>
+    <t>Thanks for the clarity you provided—it’s been incredibly helpful to me.</t>
+  </si>
+  <si>
+    <t>I appreciate your help in making this topic so much more manageable.</t>
+  </si>
+  <si>
+    <t>Thanks for your thoughtful response; it’s given me a lot of insight.</t>
+  </si>
+  <si>
+    <t>Your explanation has really helped me see things from a new angle—thanks for that.</t>
+  </si>
+  <si>
+    <t>Thanks for taking the time to break everything down so clearly—it’s helped me a lot.</t>
+  </si>
+  <si>
+    <t>I appreciate your thorough explanation; it’s given me a solid understanding of the topic.</t>
+  </si>
+  <si>
+    <t>Thanks for such an informative answer—it’s exactly what I needed.</t>
+  </si>
+  <si>
+    <t>Your response has been instrumental in improving my understanding—thanks for that.</t>
+  </si>
+  <si>
+    <t>Thanks for making everything so clear; it’s been incredibly beneficial.</t>
+  </si>
+  <si>
+    <t>I’m grateful for your guidance; it’s really helped me move forward confidently.</t>
+  </si>
+  <si>
+    <t>Your insights have made a big difference in how I approach this—thanks so much.</t>
+  </si>
+  <si>
+    <t>Thanks for your help in making things clearer—it’s been very valuable.</t>
+  </si>
+  <si>
+    <t>I appreciate your detailed answer; it’s given me a lot to work with.</t>
+  </si>
+  <si>
+    <t>Your response has given me the confidence I needed—thank you for that.</t>
+  </si>
+  <si>
+    <t>Thanks for such a thorough and clear explanation; it’s really helped me out.</t>
+  </si>
+  <si>
+    <t>Your knowledge is always so helpful—thanks for sharing it with me.</t>
+  </si>
+  <si>
+    <t>Thanks for making this topic more accessible; it’s been very helpful.</t>
+  </si>
+  <si>
+    <t>I appreciate your thoughtful response; it’s given me a lot of clarity.</t>
+  </si>
+  <si>
+    <t>Your help has made all the difference in how I understand this—thank you.</t>
+  </si>
+  <si>
+    <t>Thanks for simplifying that; it’s really helped me see the big picture.</t>
+  </si>
+  <si>
+    <t>I’m grateful for your input—it’s helped me navigate this with more ease.</t>
+  </si>
+  <si>
+    <t>Your explanation was exactly what I needed—thank you for your support.</t>
+  </si>
+  <si>
+    <t>Thanks for providing such valuable insight; it’s really helped me out.</t>
+  </si>
+  <si>
+    <t>Your response has given me a lot of clarity—thanks for taking the time to explain it.</t>
+  </si>
+  <si>
+    <t>I appreciate your help in making this topic so much more understandable.</t>
+  </si>
+  <si>
+    <t>Thanks for breaking that down—it’s really made things easier for me.</t>
+  </si>
+  <si>
+    <t>Your answer was very informative—thanks for making it clear.</t>
+  </si>
+  <si>
+    <t>I value your perspective; it’s been incredibly helpful in my understanding.</t>
+  </si>
+  <si>
+    <t>Thanks for the thorough explanation; it’s exactly what I was looking for.</t>
+  </si>
+  <si>
+    <t>Your input has really helped me see things differently—thanks for that.</t>
+  </si>
+  <si>
+    <t>Thanks for explaining that so clearly—it’s been very beneficial.</t>
+  </si>
+  <si>
+    <t>Your response has helped me move forward with confidence—thanks for your help.</t>
+  </si>
+  <si>
+    <t>Thanks for giving me such a clear direction—it’s made a big difference.</t>
+  </si>
+  <si>
+    <t>Your insight has been incredibly valuable—thank you for sharing it.</t>
+  </si>
+  <si>
+    <t>Thanks for making things clearer; your response was just what I needed.</t>
+  </si>
+  <si>
+    <t>I appreciate your detailed answer; it’s been a great help to me.</t>
+  </si>
+  <si>
+    <t>Your explanation has given me a new perspective—thanks for that.</t>
+  </si>
+  <si>
+    <t>Thanks for your help; it’s made everything so much easier to understand.</t>
+  </si>
+  <si>
+    <t>Your answer was very insightful—thanks for providing such valuable information.</t>
+  </si>
+  <si>
+    <t>I’m grateful for your guidance; it’s really helped me figure things out.</t>
+  </si>
+  <si>
+    <t>Thanks for your thorough response; it’s made a big impact on my work.</t>
+  </si>
+  <si>
+    <t>Your response was exactly what I needed to move forward—thanks for that.</t>
+  </si>
+  <si>
+    <t>Thanks for making this topic accessible; it’s been very helpful in my understanding.</t>
+  </si>
+  <si>
+    <t>Thanks for providing such a clear explanation; it's really helped me see things from a new perspective.</t>
+  </si>
+  <si>
+    <t>Your answer is incredibly insightful, and I'm very grateful for your help.</t>
+  </si>
+  <si>
+    <t>I appreciate your effort in explaining this so thoroughly; it has made all the difference.</t>
+  </si>
+  <si>
+    <t>Thanks for taking the time to provide such a detailed answer; it has really helped me a lot.</t>
+  </si>
+  <si>
+    <t>Your guidance has been instrumental in making this topic clearer—thank you.</t>
+  </si>
+  <si>
+    <t>Thanks for making this concept much easier to understand; it was really confusing before.</t>
+  </si>
+  <si>
+    <t>Your input has been so helpful in improving my understanding—thanks for that.</t>
+  </si>
+  <si>
+    <t>I truly appreciate your insight; it has provided me with the clarity I needed.</t>
+  </si>
+  <si>
+    <t>Thanks for giving me such a well-explained response; it's been very useful.</t>
+  </si>
+  <si>
+    <t>Your knowledge really shines through in your answer—thanks so much for sharing it.</t>
+  </si>
+  <si>
+    <t>I appreciate your detailed explanation; it has given me a better grasp of the topic.</t>
+  </si>
+  <si>
+    <t>Thanks for being so thorough in your answer; it's really helped me feel more confident.</t>
+  </si>
+  <si>
+    <t>Your response has provided me with so much valuable insight—thank you.</t>
+  </si>
+  <si>
+    <t>Thanks for making everything so much clearer; it's made a huge impact on my understanding.</t>
+  </si>
+  <si>
+    <t>I’m really grateful for your help; it has made a world of difference.</t>
+  </si>
+  <si>
+    <t>Your explanation was very helpful, and I can't thank you enough for it.</t>
+  </si>
+  <si>
+    <t>Thanks for breaking that down into simple terms; it's made all the difference for me.</t>
+  </si>
+  <si>
+    <t>I appreciate the time you took to explain this so clearly—it's been a real help.</t>
+  </si>
+  <si>
+    <t>Your insight has given me a new way of looking at things—thanks for that.</t>
+  </si>
+  <si>
+    <t>Thanks for providing such a clear and helpful response; it's really helped me move forward.</t>
+  </si>
+  <si>
+    <t>I value your help very much—thanks for making this topic so much more accessible.</t>
+  </si>
+  <si>
+    <t>Your answer was incredibly valuable to me—thank you for your guidance.</t>
+  </si>
+  <si>
+    <t>Thanks for the effort you put into explaining this; it really shows, and it has been very helpful.</t>
+  </si>
+  <si>
+    <t>Your explanation was exactly what I needed—thank you so much for your help.</t>
+  </si>
+  <si>
+    <t>Thanks for making that concept so much easier for me to understand.</t>
+  </si>
+  <si>
+    <t>I appreciate your thoughtful response; it has given me a lot of clarity.</t>
+  </si>
+  <si>
+    <t>Thanks for explaining everything so thoroughly; it really helped me grasp the subject.</t>
+  </si>
+  <si>
+    <t>Your answer was very informative, and I'm very thankful for it.</t>
+  </si>
+  <si>
+    <t>Thanks for making this concept so much clearer; it has made all the difference in my understanding.</t>
+  </si>
+  <si>
+    <t>I appreciate your detailed response; it's been extremely helpful.</t>
+  </si>
+  <si>
+    <t>Thanks for helping me navigate this topic; your explanation was very insightful.</t>
+  </si>
+  <si>
+    <t>Your response has made everything so much clearer—thank you for that.</t>
+  </si>
+  <si>
+    <t>Thanks for giving me such a well-thought-out answer; it has really helped me out.</t>
+  </si>
+  <si>
+    <t>Your help has been invaluable in making this topic more manageable—thanks so much.</t>
+  </si>
+  <si>
+    <t>I appreciate your detailed explanation; it has really given me a lot to think about.</t>
+  </si>
+  <si>
+    <t>Thanks for breaking down that complex concept into simple terms—it was really helpful.</t>
+  </si>
+  <si>
+    <t>Your answer has provided me with a lot of insight—thank you for sharing your knowledge.</t>
+  </si>
+  <si>
+    <t>Thanks for making that so much clearer; it's really improved my understanding.</t>
+  </si>
+  <si>
+    <t>I appreciate your thoughtful guidance—it's made all the difference for me.</t>
+  </si>
+  <si>
+    <t>Thanks for providing such a clear and informative response; it was exactly what I needed.</t>
+  </si>
+  <si>
+    <t>Your explanation has given me so much more clarity—thanks for that.</t>
+  </si>
+  <si>
+    <t>I value your input very much—it's really helped me see things differently.</t>
+  </si>
+  <si>
+    <t>Thanks for your thorough explanation; it has given me the confidence I needed to proceed.</t>
+  </si>
+  <si>
+    <t>Your answer was incredibly helpful, and I can't thank you enough for that.</t>
+  </si>
+  <si>
+    <t>Thanks for being so patient in explaining this to me; it's made a huge difference.</t>
+  </si>
+  <si>
+    <t>I appreciate your help very much—it's given me the clarity I was looking for.</t>
+  </si>
+  <si>
+    <t>Your insight has been very helpful in guiding my approach—thanks for that.</t>
+  </si>
+  <si>
+    <t>Thanks for making everything so much clearer; it's really been a big help.</t>
+  </si>
+  <si>
+    <t>I appreciate your detailed answer; it has really made a big impact on my work.</t>
+  </si>
+  <si>
+    <t>Thanks for simplifying that concept; it was really helpful for me to understand.</t>
+  </si>
+  <si>
+    <t>Your guidance has provided me with a lot of confidence—thanks so much for your help.</t>
+  </si>
+  <si>
+    <t>Thanks for taking the time to explain that so clearly; it was just what I needed.</t>
+  </si>
+  <si>
+    <t>I appreciate your insight; it's helped me see this from a new perspective.</t>
+  </si>
+  <si>
+    <t>Thanks for giving me such a thorough response; it's been very helpful.</t>
+  </si>
+  <si>
+    <t>Your answer has really made everything more manageable—thanks for that.</t>
+  </si>
+  <si>
+    <t>Thanks for making this topic so much easier to understand; it was a real challenge before.</t>
+  </si>
+  <si>
+    <t>Your explanation was very clear, and it helped me a lot—thanks so much.</t>
+  </si>
+  <si>
+    <t>I appreciate the detail you put into your response; it has really given me the direction I needed.</t>
+  </si>
+  <si>
+    <t>Thanks for guiding me through this topic; it has made all the difference.</t>
+  </si>
+  <si>
+    <t>Your response was exactly what I needed—thanks for sharing your knowledge.</t>
+  </si>
+  <si>
+    <t>Thanks for breaking that down for me; it was incredibly helpful.</t>
+  </si>
+  <si>
+    <t>I appreciate your help in making this topic more understandable—it's been a real benefit.</t>
+  </si>
+  <si>
+    <t>Your answer has provided me with a lot of clarity—thank you for that.</t>
+  </si>
+  <si>
+    <t>Thanks for giving such a clear and detailed explanation; it's helped me move forward.</t>
+  </si>
+  <si>
+    <t>I appreciate your insight; it's made the whole process much easier for me.</t>
+  </si>
+  <si>
+    <t>Thanks for making that so easy to understand; it's really helped me a lot.</t>
+  </si>
+  <si>
+    <t>Your response has given me a lot of confidence—thanks for your support.</t>
+  </si>
+  <si>
+    <t>Thanks for providing such a thorough answer; it was very helpful to me.</t>
+  </si>
+  <si>
+    <t>Your guidance has been incredibly valuable—thanks so much for that.</t>
+  </si>
+  <si>
+    <t>I appreciate your detailed explanation; it has given me a better understanding of the topic.</t>
+  </si>
+  <si>
+    <t>Thanks for making everything so clear; it was exactly what I needed.</t>
+  </si>
+  <si>
+    <t>Your help has made a big difference in how I understand this topic—thank you for that.</t>
+  </si>
+  <si>
+    <t>Thanks for taking the time to provide such an informative response; it was very helpful.</t>
+  </si>
+  <si>
+    <t>Your response was very insightful, and I appreciate your help very much.</t>
+  </si>
+  <si>
+    <t>Thanks for explaining everything in such detail; it has really improved my understanding.</t>
+  </si>
+  <si>
+    <t>I value your input—it has been incredibly helpful to me.</t>
+  </si>
+  <si>
+    <t>Thanks for providing such a clear answer; it was exactly what I needed.</t>
+  </si>
+  <si>
+    <t>Your guidance has been very valuable, and I thank you for that.</t>
+  </si>
+  <si>
+    <t>Thanks for making such a complex topic more accessible—it has been a great help.</t>
+  </si>
+  <si>
+    <t>I appreciate your help in making this topic more understandable—it's really improved my perspective.</t>
+  </si>
+  <si>
+    <t>Thanks for your thorough answer; it was incredibly valuable.</t>
+  </si>
+  <si>
+    <t>Your response has given me a new way of looking at things—thanks for that insight.</t>
+  </si>
+  <si>
+    <t>Thanks for explaining that in a way that was easy for me to understand.</t>
+  </si>
+  <si>
+    <t>Your guidance has made a big impact on my work—thanks for that.</t>
+  </si>
+  <si>
+    <t>I appreciate your thoughtful response; it's given me a lot of direction.</t>
+  </si>
+  <si>
+    <t>Thanks for breaking that down for me—it was incredibly helpful.</t>
+  </si>
+  <si>
+    <t>Your help has been invaluable in making this topic clearer—thank you.</t>
+  </si>
+  <si>
+    <t>Thanks for making everything so much clearer; it was exactly what I needed.</t>
+  </si>
+  <si>
+    <t>I appreciate your response; it has provided me with a lot of clarity.</t>
+  </si>
+  <si>
+    <t>Thanks for explaining that so thoroughly—it has made all the difference in my understanding.</t>
+  </si>
+  <si>
+    <t>Your insight has been incredibly helpful—thanks for sharing your knowledge with me.</t>
+  </si>
+  <si>
+    <t>Thanks for guiding me through this topic; it's been a big help.</t>
+  </si>
+  <si>
+    <t>Your answer was very informative, and I'm very grateful for that.</t>
+  </si>
+  <si>
+    <t>Thanks for making that concept easier to understand—it's really improved my perspective.</t>
+  </si>
+  <si>
+    <t>Your response has been very valuable—thanks so much for that.</t>
+  </si>
+  <si>
+    <t>I appreciate your help in providing such a detailed explanation—it was very useful.</t>
+  </si>
+  <si>
+    <t>Thanks for being so thorough in your answer; it's helped me gain a lot of clarity.</t>
+  </si>
+  <si>
+    <t>Your guidance has been incredibly helpful in understanding this topic—thanks for that.</t>
+  </si>
+  <si>
+    <t>Thanks for explaining everything so clearly; it has made a big difference for me.</t>
+  </si>
+  <si>
+    <t>I value your help very much—thanks for making this topic so much more manageable.</t>
+  </si>
+  <si>
+    <t>Can you elaborate more on that point</t>
+  </si>
+  <si>
+    <t>Could you explain that in more detail, please</t>
+  </si>
+  <si>
+    <t>I’m not sure I fully understand; could you clarify that part</t>
+  </si>
+  <si>
+    <t>Can you provide an example to help me understand better</t>
+  </si>
+  <si>
+    <t>Could you break it down a bit more for me</t>
+  </si>
+  <si>
+    <t>I didn't quite catch that. Could you go over it again</t>
+  </si>
+  <si>
+    <t>Could you expand on the reasoning behind that</t>
+  </si>
+  <si>
+    <t>Can you simplify that concept a little for me</t>
+  </si>
+  <si>
+    <t>I’m still a bit confused. Could you clarify this aspect</t>
+  </si>
+  <si>
+    <t>Can you help me understand the key takeaway here</t>
+  </si>
+  <si>
+    <t>Could you explain how this fits into the larger context</t>
+  </si>
+  <si>
+    <t>I’d like to know more about the implications of this. Can you elaborate</t>
+  </si>
+  <si>
+    <t>Can you explain it in a different way to help me grasp it</t>
+  </si>
+  <si>
+    <t>What’s the core idea here? I’m still not fully getting it</t>
+  </si>
+  <si>
+    <t>Can you provide more background information on this topic</t>
+  </si>
+  <si>
+    <t>Could you walk me through this step by step</t>
+  </si>
+  <si>
+    <t>Can you expand on why this is important</t>
+  </si>
+  <si>
+    <t>I need a bit more information. Could you go into greater detail</t>
+  </si>
+  <si>
+    <t>Can you clarify the connection between these two ideas</t>
+  </si>
+  <si>
+    <t>Could you provide more context to help me understand better</t>
+  </si>
+  <si>
+    <t>Can you explain why this happens in this particular way</t>
+  </si>
+  <si>
+    <t>I don’t quite understand the reasoning behind this. Could you explain more</t>
+  </si>
+  <si>
+    <t>Can you elaborate on the impact of this</t>
+  </si>
+  <si>
+    <t>Could you help me understand the practical application of this</t>
+  </si>
+  <si>
+    <t>Can you clarify what you mean by this term</t>
+  </si>
+  <si>
+    <t>Could you go deeper into the concept you mentioned</t>
+  </si>
+  <si>
+    <t>I’d like more details about this part. Could you expand on it</t>
+  </si>
+  <si>
+    <t>Could you explain the significance of this point in more depth</t>
+  </si>
+  <si>
+    <t>I need more clarification. Could you explain the relationship between these factors</t>
+  </si>
+  <si>
+    <t>Can you provide a bit more insight into this aspect</t>
+  </si>
+  <si>
+    <t>Could you describe how this fits into the overall picture</t>
+  </si>
+  <si>
+    <t>I’m not quite clear on that. Could you explain it in simpler terms</t>
+  </si>
+  <si>
+    <t>Can you provide more information on how this process works</t>
+  </si>
+  <si>
+    <t>Could you elaborate on the challenges involved in this</t>
+  </si>
+  <si>
+    <t>Can you break this down a bit more for me</t>
+  </si>
+  <si>
+    <t>I’m still trying to understand. Could you explain it from a different angle</t>
+  </si>
+  <si>
+    <t>Can you explain why this approach is the best option</t>
+  </si>
+  <si>
+    <t>Could you clarify how this outcome is reached</t>
+  </si>
+  <si>
+    <t>Can you help me understand the logic behind this</t>
+  </si>
+  <si>
+    <t>Could you provide a detailed explanation of this part</t>
+  </si>
+  <si>
+    <t>I’m not sure I fully understand. Could you explain it a bit further</t>
+  </si>
+  <si>
+    <t>Can you expand on how this connects to the previous point</t>
+  </si>
+  <si>
+    <t>Could you go into more depth about the cause and effect here</t>
+  </si>
+  <si>
+    <t>I need more information to fully understand. Could you elaborate</t>
+  </si>
+  <si>
+    <t>Can you explain the rationale behind this</t>
+  </si>
+  <si>
+    <t>Could you provide a more detailed overview of this idea</t>
+  </si>
+  <si>
+    <t>I’d like more clarity on this. Could you explain it in another way</t>
+  </si>
+  <si>
+    <t>Can you go into more depth about this process</t>
+  </si>
+  <si>
+    <t>Could you explain why this step is necessary</t>
+  </si>
+  <si>
+    <t>Can you clarify the relationship between these two elements</t>
+  </si>
+  <si>
+    <t>I still have questions about this part. Could you elaborate further</t>
+  </si>
+  <si>
+    <t>Could you give me more insight into the reasoning here</t>
+  </si>
+  <si>
+    <t>Can you provide a more in-depth explanation of this</t>
+  </si>
+  <si>
+    <t>Could you explain how this is relevant in a broader context</t>
+  </si>
+  <si>
+    <t>I need a clearer understanding of this. Could you expand on it</t>
+  </si>
+  <si>
+    <t>Can you help me understand why this conclusion was reached</t>
+  </si>
+  <si>
+    <t>Could you break this concept down for me in more detail</t>
+  </si>
+  <si>
+    <t>I’m a bit confused. Could you explain this point again</t>
+  </si>
+  <si>
+    <t>Can you go over the main points again to help me understand</t>
+  </si>
+  <si>
+    <t>Could you explain how this impacts the overall outcome</t>
+  </si>
+  <si>
+    <t>I’d appreciate it if you could elaborate on this aspect</t>
+  </si>
+  <si>
+    <t>Can you provide an example to make this clearer</t>
+  </si>
+  <si>
+    <t>Could you explain this in a way that’s easier to understand</t>
+  </si>
+  <si>
+    <t>I still don’t fully understand. Could you expand on it further</t>
+  </si>
+  <si>
+    <t>Can you help me understand the connection between these points</t>
+  </si>
+  <si>
+    <t>Could you go into more detail about why this is the case</t>
+  </si>
+  <si>
+    <t>I’d like to understand more about the implications. Can you elaborate</t>
+  </si>
+  <si>
+    <t>Can you explain how this fits into the larger strategy</t>
+  </si>
+  <si>
+    <t>Could you clarify the reasoning behind this approach</t>
+  </si>
+  <si>
+    <t>Can you go into greater depth on this specific point</t>
+  </si>
+  <si>
+    <t>I’m not completely sure I get it. Could you provide more context</t>
+  </si>
+  <si>
+    <t>Can you explain why this is significant in the big picture</t>
+  </si>
+  <si>
+    <t>Could you help me understand the steps involved in this</t>
+  </si>
+  <si>
+    <t>I’d like more insight. Can you elaborate on the details</t>
+  </si>
+  <si>
+    <t>Can you provide more background on this idea</t>
+  </si>
+  <si>
+    <t>Could you go over how this fits into the overall plan</t>
+  </si>
+  <si>
+    <t>I still have some questions. Could you explain further</t>
+  </si>
+  <si>
+    <t>Can you clarify how this part contributes to the final outcome</t>
+  </si>
+  <si>
+    <t>Could you provide more explanation on why this happens</t>
+  </si>
+  <si>
+    <t>I’d like to know more about this aspect. Could you expand on it</t>
+  </si>
+  <si>
+    <t>Can you give me more details to understand this concept fully</t>
+  </si>
+  <si>
+    <t>Could you explain this part in simpler terms</t>
+  </si>
+  <si>
+    <t>I still need clarification. Could you provide more context</t>
+  </si>
+  <si>
+    <t>Can you elaborate on the key factors involved here</t>
+  </si>
+  <si>
+    <t>Could you explain the underlying principles behind this</t>
+  </si>
+  <si>
+    <t>I’d appreciate it if you could give me more details on this</t>
+  </si>
+  <si>
+    <t>Can you help me understand the broader context</t>
+  </si>
+  <si>
+    <t>Could you provide more depth on how this works</t>
+  </si>
+  <si>
+    <t>I’m still unclear. Could you explain this part more thoroughly</t>
+  </si>
+  <si>
+    <t>Can you clarify how each step contributes to the whole</t>
+  </si>
+  <si>
+    <t>Could you explain why this particular approach was chosen</t>
+  </si>
+  <si>
+    <t>I need more information on this. Could you go into greater detail</t>
+  </si>
+  <si>
+    <t>Can you elaborate on how this influences the overall outcome</t>
+  </si>
+  <si>
+    <t>Could you explain the logic behind this step in more depth</t>
+  </si>
+  <si>
+    <t>I’m still unsure. Could you expand on how this applies</t>
+  </si>
+  <si>
+    <t>Can you provide more detail on the cause and effect here</t>
+  </si>
+  <si>
+    <t>Could you help me understand why this is important</t>
+  </si>
+  <si>
+    <t>I’d appreciate more information on how this process works</t>
+  </si>
+  <si>
+    <t>Can you go over the rationale behind this decision</t>
+  </si>
+  <si>
+    <t>Could you give me more details to help me understand fully</t>
+  </si>
+  <si>
+    <t>Can you explain that part in more detail</t>
+  </si>
+  <si>
+    <t>Could you give me an example to illustrate that</t>
+  </si>
+  <si>
+    <t>I didn't fully understand, can you clarify it for me</t>
+  </si>
+  <si>
+    <t>Could you break that down further</t>
+  </si>
+  <si>
+    <t>I’m not sure I get it completely, can you explain again</t>
+  </si>
+  <si>
+    <t>Could you simplify that concept for better understanding</t>
+  </si>
+  <si>
+    <t>Can you elaborate on that point</t>
+  </si>
+  <si>
+    <t>What are the key aspects I should focus on here</t>
+  </si>
+  <si>
+    <t>Could you explain this from a different angle</t>
+  </si>
+  <si>
+    <t>Can you help me understand the logic behind that</t>
+  </si>
+  <si>
+    <t>Could you give a bit more context on this topic</t>
+  </si>
+  <si>
+    <t>Can you clarify the reasoning behind this</t>
+  </si>
+  <si>
+    <t>What is the main takeaway here</t>
+  </si>
+  <si>
+    <t>Can you go deeper into this particular point</t>
+  </si>
+  <si>
+    <t>How does this fit into the larger picture</t>
+  </si>
+  <si>
+    <t>Can you explain why this is relevant</t>
+  </si>
+  <si>
+    <t>I’m still unclear, could you provide more details</t>
+  </si>
+  <si>
+    <t>Could you break this concept down step by step</t>
+  </si>
+  <si>
+    <t>What’s the practical implication of this</t>
+  </si>
+  <si>
+    <t>How does this apply in a real-world scenario</t>
+  </si>
+  <si>
+    <t>Could you go over that again in simpler terms</t>
+  </si>
+  <si>
+    <t>Can you expand on the challenges associated with this</t>
+  </si>
+  <si>
+    <t>How can this concept be simplified further</t>
+  </si>
+  <si>
+    <t>Could you clarify the difference between these two points</t>
+  </si>
+  <si>
+    <t>What are the risks involved here</t>
+  </si>
+  <si>
+    <t>Could you provide more details on the steps involved</t>
+  </si>
+  <si>
+    <t>Can you elaborate on why this is important</t>
+  </si>
+  <si>
+    <t>I need more information on that, can you explain</t>
+  </si>
+  <si>
+    <t>Can you explain the connection between these ideas</t>
+  </si>
+  <si>
+    <t>How would you summarize the key points here</t>
+  </si>
+  <si>
+    <t>Can you provide more insight into this aspect</t>
+  </si>
+  <si>
+    <t>Could you clarify why this happens</t>
+  </si>
+  <si>
+    <t>How does this fit within our broader goals</t>
+  </si>
+  <si>
+    <t>What are the long-term effects of this</t>
+  </si>
+  <si>
+    <t>Can you explain how this works more thoroughly</t>
+  </si>
+  <si>
+    <t>I’d like to know more about this point, can you elaborate</t>
+  </si>
+  <si>
+    <t>Could you give me another example to make it clearer</t>
+  </si>
+  <si>
+    <t>What are the main factors that affect this outcome</t>
+  </si>
+  <si>
+    <t>Could you walk me through this process again</t>
+  </si>
+  <si>
+    <t>How could this approach be improved</t>
+  </si>
+  <si>
+    <t>Could you go over the details one more time</t>
+  </si>
+  <si>
+    <t>Can you help me understand this concept better</t>
+  </si>
+  <si>
+    <t>Could you explain the impact of this more clearly</t>
+  </si>
+  <si>
+    <t>How does this affect related areas</t>
+  </si>
+  <si>
+    <t>What are the underlying principles here</t>
+  </si>
+  <si>
+    <t>Can you expand on how this concept can be applied</t>
+  </si>
+  <si>
+    <t>I’m still not getting it, could you explain differently</t>
+  </si>
+  <si>
+    <t>What is the reasoning behind this recommendation</t>
+  </si>
+  <si>
+    <t>Can you provide more background information</t>
+  </si>
+  <si>
+    <t>Could you elaborate on the methods used</t>
+  </si>
+  <si>
+    <t>How does this relate to the overall objective</t>
+  </si>
+  <si>
+    <t>Can you clarify the cause and effect in this case</t>
+  </si>
+  <si>
+    <t>I’d appreciate if you could simplify this for me</t>
+  </si>
+  <si>
+    <t>Could you explain how this fits into the broader context</t>
+  </si>
+  <si>
+    <t>Can you go into more detail about this topic</t>
+  </si>
+  <si>
+    <t>What factors should be considered here</t>
+  </si>
+  <si>
+    <t>Could you clarify what you mean by this term</t>
+  </si>
+  <si>
+    <t>How does this relate to other ideas we discussed</t>
+  </si>
+  <si>
+    <t>Can you give me more insight into the reasoning</t>
+  </si>
+  <si>
+    <t>Could you break this part down a bit more</t>
+  </si>
+  <si>
+    <t>What challenges are associated with this approach</t>
+  </si>
+  <si>
+    <t>Can you explain the implications more fully</t>
+  </si>
+  <si>
+    <t>Could you help me understand the overall process better</t>
+  </si>
+  <si>
+    <t>I need a clearer picture of this, can you expand</t>
+  </si>
+  <si>
+    <t>Could you explain this in layman's terms</t>
+  </si>
+  <si>
+    <t>Can you provide more context for better understanding</t>
+  </si>
+  <si>
+    <t>What are the steps involved in implementing this</t>
+  </si>
+  <si>
+    <t>How does this factor influence the outcome</t>
+  </si>
+  <si>
+    <t>Could you explain the benefits in more depth</t>
+  </si>
+  <si>
+    <t>Can you expand on how these concepts interrelate</t>
+  </si>
+  <si>
+    <t>Could you describe the limitations of this approach</t>
+  </si>
+  <si>
+    <t>I’d like to hear more about the reasoning behind this</t>
+  </si>
+  <si>
+    <t>Can you explain this aspect in more detail</t>
+  </si>
+  <si>
+    <t>Could you clarify how these elements are connected</t>
+  </si>
+  <si>
+    <t>How would you describe the main idea here</t>
+  </si>
+  <si>
+    <t>Can you elaborate on how this works in practice</t>
+  </si>
+  <si>
+    <t>Could you break this down into simpler parts</t>
+  </si>
+  <si>
+    <t>How does this fit with other information we have</t>
+  </si>
+  <si>
+    <t>Can you provide more depth on this concept</t>
+  </si>
+  <si>
+    <t>Could you explain how these outcomes are related</t>
+  </si>
+  <si>
+    <t>What is the core reason for this action</t>
+  </si>
+  <si>
+    <t>Can you help me understand the sequence of events</t>
+  </si>
+  <si>
+    <t>Could you provide more depth on why this is significant</t>
+  </si>
+  <si>
+    <t>What other factors should we consider</t>
+  </si>
+  <si>
+    <t>Can you explain this part of the process again</t>
+  </si>
+  <si>
+    <t>Could you give me more detail about the background</t>
+  </si>
+  <si>
+    <t>What are the expected outcomes of this</t>
+  </si>
+  <si>
+    <t>Could you elaborate on the strategy here</t>
+  </si>
+  <si>
+    <t>Can you provide more explanation on this approach</t>
+  </si>
+  <si>
+    <t>How does this influence our goals</t>
+  </si>
+  <si>
+    <t>Could you help clarify this aspect</t>
+  </si>
+  <si>
+    <t>What is the main difference between these options</t>
+  </si>
+  <si>
+    <t>Can you expand on the reasoning behind that decision</t>
+  </si>
+  <si>
+    <t>Could you explain the broader implications of this</t>
+  </si>
+  <si>
+    <t>How does this align with our objectives</t>
+  </si>
+  <si>
+    <t>Can you go into more detail about the rationale here</t>
+  </si>
+  <si>
+    <t>Could you clarify what the main challenges are</t>
+  </si>
+  <si>
+    <t>How can this be applied in other contexts</t>
+  </si>
+  <si>
+    <t>Could you explain how this fits into the larger framework</t>
+  </si>
+  <si>
+    <t>Can you explain how this could be applied in different scenarios</t>
+  </si>
+  <si>
+    <t>Could you provide more details on the factors affecting this outcome</t>
+  </si>
+  <si>
+    <t>How would this change if certain conditions were different</t>
+  </si>
+  <si>
+    <t>Could you elaborate on the process step-by-step</t>
+  </si>
+  <si>
+    <t>What additional information would help clarify this topic</t>
+  </si>
+  <si>
+    <t>Can you explain the key challenges in more depth</t>
+  </si>
+  <si>
+    <t>How does this compare to other similar approaches</t>
+  </si>
+  <si>
+    <t>Could you clarify how this aligns with the overall strategy</t>
+  </si>
+  <si>
+    <t>What are the possible downsides to this approach</t>
+  </si>
+  <si>
+    <t>Can you expand on the underlying logic of this decision</t>
+  </si>
+  <si>
+    <t>Could you provide more examples for better understanding</t>
+  </si>
+  <si>
+    <t>How does this solution impact other related areas</t>
+  </si>
+  <si>
+    <t>Can you help me understand the risks involved</t>
+  </si>
+  <si>
+    <t>Could you go deeper into why this approach was chosen</t>
+  </si>
+  <si>
+    <t>What are the possible limitations of this concept</t>
+  </si>
+  <si>
+    <t>Can you explain how this might evolve in the future</t>
+  </si>
+  <si>
+    <t>Could you elaborate on the potential benefits of this</t>
+  </si>
+  <si>
+    <t>What factors need to be considered when applying this</t>
+  </si>
+  <si>
+    <t>Can you provide more context to understand the broader impact</t>
+  </si>
+  <si>
+    <t>How does this solution compare to alternatives</t>
+  </si>
+  <si>
+    <t>Could you clarify the role of each step in the process</t>
+  </si>
+  <si>
+    <t>What other methods could be used to achieve this result</t>
+  </si>
+  <si>
+    <t>Can you expand on how this outcome affects overall objectives</t>
+  </si>
+  <si>
+    <t>Could you provide a different perspective on this issue</t>
+  </si>
+  <si>
+    <t>What are the key performance indicators for this approach</t>
+  </si>
+  <si>
+    <t>Can you explain why this particular method is effective</t>
+  </si>
+  <si>
+    <t>Could you go over the potential obstacles we might face</t>
+  </si>
+  <si>
+    <t>What are the main advantages of this solution</t>
+  </si>
+  <si>
+    <t>Can you help me understand how this decision was reached</t>
+  </si>
+  <si>
+    <t>Could you elaborate on how this approach is implemented</t>
+  </si>
+  <si>
+    <t>What are the major risks we need to be aware of</t>
+  </si>
+  <si>
+    <t>Can you explain the dependencies in this process</t>
+  </si>
+  <si>
+    <t>Could you provide more examples of similar cases</t>
+  </si>
+  <si>
+    <t>What is the expected impact of this on future developments</t>
+  </si>
+  <si>
+    <t>Can you clarify why this outcome is preferred</t>
+  </si>
+  <si>
+    <t>Could you explain how this fits into the bigger picture</t>
+  </si>
+  <si>
+    <t>What are the main drivers behind this strategy</t>
+  </si>
+  <si>
+    <t>Can you expand on how these elements are interrelated</t>
+  </si>
+  <si>
+    <t>Could you go deeper into the alternatives we have</t>
+  </si>
+  <si>
+    <t>How would you prioritize the steps involved</t>
+  </si>
+  <si>
+    <t>Can you provide more details on the timing of this approach</t>
+  </si>
+  <si>
+    <t>Could you help me understand the broader implications</t>
+  </si>
+  <si>
+    <t>What are the potential benefits of using this method</t>
+  </si>
+  <si>
+    <t>Can you clarify the reasoning behind each step</t>
+  </si>
+  <si>
+    <t>Could you elaborate on the expected outcomes in more detail</t>
+  </si>
+  <si>
+    <t>How does this align with industry standards</t>
+  </si>
+  <si>
+    <t>Can you explain the potential challenges in more depth</t>
+  </si>
+  <si>
+    <t>Could you provide more insight into the expected timeline</t>
+  </si>
+  <si>
+    <t>What would be the ideal scenario for implementing this</t>
+  </si>
+  <si>
+    <t>Can you go over the important factors again</t>
+  </si>
+  <si>
+    <t>Could you clarify how this impacts the overall process</t>
+  </si>
+  <si>
+    <t>How would this be affected by changes in key variables</t>
+  </si>
+  <si>
+    <t>Can you provide a more detailed overview of this approach</t>
+  </si>
+  <si>
+    <t>Could you expand on the benefits and challenges</t>
+  </si>
+  <si>
+    <t>What are the main considerations for implementing this</t>
+  </si>
+  <si>
+    <t>Can you help me understand the trade-offs involved</t>
+  </si>
+  <si>
+    <t>Could you go over the assumptions behind this approach</t>
+  </si>
+  <si>
+    <t>How does this contribute to our long-term goals</t>
+  </si>
+  <si>
+    <t>Can you explain how this relates to current trends</t>
+  </si>
+  <si>
+    <t>Could you provide more information on the dependencies</t>
+  </si>
+  <si>
+    <t>What are the possible risks if this approach fails</t>
+  </si>
+  <si>
+    <t>Can you elaborate on the benefits compared to other solutions</t>
+  </si>
+  <si>
+    <t>Could you help me understand the criteria for success</t>
+  </si>
+  <si>
+    <t>How does this solution integrate with existing systems</t>
+  </si>
+  <si>
+    <t>Can you provide more details on the implementation strategy</t>
+  </si>
+  <si>
+    <t>Could you explain the main barriers we may face</t>
+  </si>
+  <si>
+    <t>What are the critical success factors for this plan</t>
+  </si>
+  <si>
+    <t>Can you expand on the key drivers behind this decision</t>
+  </si>
+  <si>
+    <t>Could you help me understand the expected return on investment</t>
+  </si>
+  <si>
+    <t>How would you measure the success of this approach</t>
+  </si>
+  <si>
+    <t>Can you provide more depth on the impact of this on stakeholders</t>
+  </si>
+  <si>
+    <t>Could you go over the ways to mitigate potential risks</t>
+  </si>
+  <si>
+    <t>What are the main elements that need careful consideration</t>
+  </si>
+  <si>
+    <t>Can you clarify the expected timeline for achieving results</t>
+  </si>
+  <si>
+    <t>Could you explain how this will affect overall efficiency</t>
+  </si>
+  <si>
+    <t>How does this compare to similar approaches in other industries</t>
+  </si>
+  <si>
+    <t>Can you elaborate on the major dependencies involved</t>
+  </si>
+  <si>
+    <t>Could you provide a different approach to solving this issue</t>
+  </si>
+  <si>
+    <t>What are the long-term implications of this choice</t>
+  </si>
+  <si>
+    <t>Can you expand on how to ensure this plan is sustainable</t>
+  </si>
+  <si>
+    <t>Could you explain the main benefits of this strategy</t>
+  </si>
+  <si>
+    <t>What are the key milestones for successful implementation</t>
+  </si>
+  <si>
+    <t>Can you provide more detail on how this fits into the larger system</t>
+  </si>
+  <si>
+    <t>Could you elaborate on how this impacts resource allocation</t>
+  </si>
+  <si>
+    <t>How does this influence the current workflow</t>
+  </si>
+  <si>
+    <t>Can you help me understand how to address potential challenges</t>
+  </si>
+  <si>
+    <t>Could you clarify the key steps needed to implement this</t>
+  </si>
+  <si>
+    <t>What are the critical aspects we need to get right</t>
+  </si>
+  <si>
+    <t>Can you expand on the potential for scalability</t>
+  </si>
+  <si>
+    <t>Could you provide more depth on the practical application of this</t>
+  </si>
+  <si>
+    <t>How would you describe the ideal conditions for this approach</t>
+  </si>
+  <si>
+    <t>Can you go over the rationale for choosing this over other options</t>
+  </si>
+  <si>
+    <t>Could you explain the expected outcome if everything goes as planned</t>
+  </si>
+  <si>
+    <t>What are the possible improvements to enhance this process</t>
+  </si>
+  <si>
+    <t>Can you elaborate on how to optimize this strategy</t>
+  </si>
+  <si>
+    <t>Could you help me understand the potential impact on stakeholders</t>
+  </si>
+  <si>
+    <t>How would this approach handle unexpected changes</t>
+  </si>
+  <si>
+    <t>Can you provide more details on the decision-making process</t>
+  </si>
+  <si>
+    <t>Could you go deeper into the alternatives we could consider</t>
+  </si>
+  <si>
+    <t>What measures can be taken to ensure this is executed smoothly</t>
   </si>
 </sst>
 </file>
@@ -9682,25 +11731,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J506"/>
+  <dimension ref="A1:K506"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="I208" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J225" activeCellId="1" sqref="J222 J225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="99.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="97.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="83.28515625" customWidth="1"/>
-    <col min="7" max="9" width="33" customWidth="1"/>
-    <col min="10" max="10" width="101.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="115" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="111.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="109.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="105.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="116.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="107.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="97.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9731,8 +11783,11 @@
       <c r="J1" s="2" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -9763,8 +11818,11 @@
       <c r="J2" s="2" t="s">
         <v>2870</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9795,8 +11853,11 @@
       <c r="J3" s="2" t="s">
         <v>2871</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -9827,8 +11888,11 @@
       <c r="J4" s="2" t="s">
         <v>2872</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -9859,8 +11923,11 @@
       <c r="J5" s="2" t="s">
         <v>2873</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -9891,8 +11958,11 @@
       <c r="J6" s="2" t="s">
         <v>2874</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -9923,8 +11993,11 @@
       <c r="J7" s="2" t="s">
         <v>2875</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -9955,8 +12028,11 @@
       <c r="J8" s="2" t="s">
         <v>2876</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -9987,8 +12063,11 @@
       <c r="J9" s="2" t="s">
         <v>2877</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -10019,8 +12098,11 @@
       <c r="J10" s="2" t="s">
         <v>2878</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -10051,8 +12133,11 @@
       <c r="J11" s="2" t="s">
         <v>2879</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -10083,8 +12168,11 @@
       <c r="J12" s="2" t="s">
         <v>2880</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -10115,8 +12203,11 @@
       <c r="J13" s="2" t="s">
         <v>2881</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -10147,8 +12238,11 @@
       <c r="J14" s="2" t="s">
         <v>2882</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -10179,8 +12273,11 @@
       <c r="J15" s="2" t="s">
         <v>2883</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -10211,8 +12308,11 @@
       <c r="J16" s="2" t="s">
         <v>2884</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -10243,8 +12343,11 @@
       <c r="J17" s="2" t="s">
         <v>2885</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -10275,8 +12378,11 @@
       <c r="J18" s="2" t="s">
         <v>2886</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -10307,8 +12413,11 @@
       <c r="J19" s="2" t="s">
         <v>2887</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -10339,8 +12448,11 @@
       <c r="J20" s="2" t="s">
         <v>2888</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -10371,8 +12483,11 @@
       <c r="J21" s="2" t="s">
         <v>2889</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -10403,8 +12518,11 @@
       <c r="J22" s="2" t="s">
         <v>2890</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -10435,8 +12553,11 @@
       <c r="J23" s="2" t="s">
         <v>2891</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -10467,8 +12588,11 @@
       <c r="J24" s="2" t="s">
         <v>2892</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -10499,8 +12623,11 @@
       <c r="J25" s="2" t="s">
         <v>2893</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -10531,8 +12658,11 @@
       <c r="J26" s="2" t="s">
         <v>2894</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -10563,8 +12693,11 @@
       <c r="J27" s="2" t="s">
         <v>2895</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -10595,8 +12728,11 @@
       <c r="J28" s="2" t="s">
         <v>2896</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -10627,8 +12763,11 @@
       <c r="J29" s="2" t="s">
         <v>2897</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -10659,8 +12798,11 @@
       <c r="J30" s="2" t="s">
         <v>2898</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -10691,8 +12833,11 @@
       <c r="J31" s="2" t="s">
         <v>2899</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -10723,8 +12868,11 @@
       <c r="J32" s="2" t="s">
         <v>2900</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -10755,8 +12903,11 @@
       <c r="J33" s="2" t="s">
         <v>2901</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -10787,8 +12938,11 @@
       <c r="J34" s="2" t="s">
         <v>2902</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" t="s">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -10819,8 +12973,11 @@
       <c r="J35" s="2" t="s">
         <v>2903</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -10851,8 +13008,11 @@
       <c r="J36" s="2" t="s">
         <v>2904</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -10883,8 +13043,11 @@
       <c r="J37" s="2" t="s">
         <v>2905</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -10915,8 +13078,11 @@
       <c r="J38" s="2" t="s">
         <v>2906</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -10947,8 +13113,11 @@
       <c r="J39" s="2" t="s">
         <v>2907</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -10979,8 +13148,11 @@
       <c r="J40" s="2" t="s">
         <v>2908</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -11011,8 +13183,11 @@
       <c r="J41" s="2" t="s">
         <v>2909</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -11043,8 +13218,11 @@
       <c r="J42" s="2" t="s">
         <v>2910</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -11075,8 +13253,11 @@
       <c r="J43" s="2" t="s">
         <v>2911</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -11107,8 +13288,11 @@
       <c r="J44" s="2" t="s">
         <v>2912</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -11139,8 +13323,11 @@
       <c r="J45" s="2" t="s">
         <v>2913</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -11171,8 +13358,11 @@
       <c r="J46" s="2" t="s">
         <v>2914</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -11203,8 +13393,11 @@
       <c r="J47" s="2" t="s">
         <v>2915</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -11235,8 +13428,11 @@
       <c r="J48" s="2" t="s">
         <v>2916</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -11267,8 +13463,11 @@
       <c r="J49" s="2" t="s">
         <v>2917</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" t="s">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -11299,8 +13498,11 @@
       <c r="J50" s="2" t="s">
         <v>2918</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" t="s">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -11331,8 +13533,11 @@
       <c r="J51" s="2" t="s">
         <v>2919</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" t="s">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
@@ -11363,8 +13568,11 @@
       <c r="J52" s="2" t="s">
         <v>2870</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" t="s">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -11395,8 +13603,11 @@
       <c r="J53" s="2" t="s">
         <v>2871</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" t="s">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
@@ -11427,8 +13638,11 @@
       <c r="J54" s="2" t="s">
         <v>2872</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" t="s">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -11459,8 +13673,11 @@
       <c r="J55" s="2" t="s">
         <v>2873</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
@@ -11491,8 +13708,11 @@
       <c r="J56" s="2" t="s">
         <v>2874</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" t="s">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>12</v>
       </c>
@@ -11523,8 +13743,11 @@
       <c r="J57" s="2" t="s">
         <v>2875</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" t="s">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
@@ -11555,8 +13778,11 @@
       <c r="J58" s="2" t="s">
         <v>2876</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
@@ -11587,8 +13813,11 @@
       <c r="J59" s="2" t="s">
         <v>2877</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" t="s">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>58</v>
       </c>
@@ -11619,8 +13848,11 @@
       <c r="J60" s="2" t="s">
         <v>2878</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" t="s">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
@@ -11651,8 +13883,11 @@
       <c r="J61" s="2" t="s">
         <v>2879</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" t="s">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
@@ -11683,8 +13918,11 @@
       <c r="J62" s="2" t="s">
         <v>2880</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" t="s">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>61</v>
       </c>
@@ -11715,8 +13953,11 @@
       <c r="J63" s="2" t="s">
         <v>2881</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" t="s">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
@@ -11747,8 +13988,11 @@
       <c r="J64" s="2" t="s">
         <v>2882</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" t="s">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>63</v>
       </c>
@@ -11779,8 +14023,11 @@
       <c r="J65" s="2" t="s">
         <v>2883</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" t="s">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>64</v>
       </c>
@@ -11811,8 +14058,11 @@
       <c r="J66" s="2" t="s">
         <v>2884</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" t="s">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>65</v>
       </c>
@@ -11843,8 +14093,11 @@
       <c r="J67" s="2" t="s">
         <v>2885</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" t="s">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>66</v>
       </c>
@@ -11875,8 +14128,11 @@
       <c r="J68" s="2" t="s">
         <v>2886</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" t="s">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>67</v>
       </c>
@@ -11907,8 +14163,11 @@
       <c r="J69" s="2" t="s">
         <v>2887</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" t="s">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>68</v>
       </c>
@@ -11939,8 +14198,11 @@
       <c r="J70" s="2" t="s">
         <v>2888</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" t="s">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>69</v>
       </c>
@@ -11971,8 +14233,11 @@
       <c r="J71" s="2" t="s">
         <v>2889</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>70</v>
       </c>
@@ -12003,8 +14268,11 @@
       <c r="J72" s="2" t="s">
         <v>2890</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>71</v>
       </c>
@@ -12035,8 +14303,11 @@
       <c r="J73" s="2" t="s">
         <v>2891</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" t="s">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>72</v>
       </c>
@@ -12067,8 +14338,11 @@
       <c r="J74" s="2" t="s">
         <v>2892</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" t="s">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>73</v>
       </c>
@@ -12099,8 +14373,11 @@
       <c r="J75" s="2" t="s">
         <v>2893</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" t="s">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>74</v>
       </c>
@@ -12131,8 +14408,11 @@
       <c r="J76" s="2" t="s">
         <v>2894</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" t="s">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>75</v>
       </c>
@@ -12163,8 +14443,11 @@
       <c r="J77" s="2" t="s">
         <v>2895</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" t="s">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>76</v>
       </c>
@@ -12195,8 +14478,11 @@
       <c r="J78" s="2" t="s">
         <v>2896</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" t="s">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>77</v>
       </c>
@@ -12227,8 +14513,11 @@
       <c r="J79" s="2" t="s">
         <v>2897</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" t="s">
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>78</v>
       </c>
@@ -12259,8 +14548,11 @@
       <c r="J80" s="2" t="s">
         <v>2898</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>79</v>
       </c>
@@ -12291,8 +14583,11 @@
       <c r="J81" s="2" t="s">
         <v>2899</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>80</v>
       </c>
@@ -12323,8 +14618,11 @@
       <c r="J82" s="2" t="s">
         <v>2900</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" t="s">
+        <v>3558</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>81</v>
       </c>
@@ -12355,8 +14653,11 @@
       <c r="J83" s="2" t="s">
         <v>2901</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" t="s">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>82</v>
       </c>
@@ -12387,8 +14688,11 @@
       <c r="J84" s="2" t="s">
         <v>2902</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>83</v>
       </c>
@@ -12419,8 +14723,11 @@
       <c r="J85" s="2" t="s">
         <v>2903</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>84</v>
       </c>
@@ -12451,8 +14758,11 @@
       <c r="J86" s="2" t="s">
         <v>2904</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" t="s">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>85</v>
       </c>
@@ -12483,8 +14793,11 @@
       <c r="J87" s="2" t="s">
         <v>2905</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>86</v>
       </c>
@@ -12515,8 +14828,11 @@
       <c r="J88" s="2" t="s">
         <v>2906</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" t="s">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>87</v>
       </c>
@@ -12547,8 +14863,11 @@
       <c r="J89" s="2" t="s">
         <v>2907</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" t="s">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>88</v>
       </c>
@@ -12579,8 +14898,11 @@
       <c r="J90" s="2" t="s">
         <v>2908</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>89</v>
       </c>
@@ -12611,8 +14933,11 @@
       <c r="J91" s="2" t="s">
         <v>2909</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" t="s">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>90</v>
       </c>
@@ -12643,8 +14968,11 @@
       <c r="J92" s="2" t="s">
         <v>2910</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>91</v>
       </c>
@@ -12675,8 +15003,11 @@
       <c r="J93" s="2" t="s">
         <v>2911</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>92</v>
       </c>
@@ -12707,8 +15038,11 @@
       <c r="J94" s="2" t="s">
         <v>2912</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>93</v>
       </c>
@@ -12739,8 +15073,11 @@
       <c r="J95" s="2" t="s">
         <v>2913</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K95" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>94</v>
       </c>
@@ -12771,8 +15108,11 @@
       <c r="J96" s="2" t="s">
         <v>2914</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>95</v>
       </c>
@@ -12803,8 +15143,11 @@
       <c r="J97" s="2" t="s">
         <v>2915</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" t="s">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>96</v>
       </c>
@@ -12835,8 +15178,11 @@
       <c r="J98" s="2" t="s">
         <v>2916</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>97</v>
       </c>
@@ -12867,8 +15213,11 @@
       <c r="J99" s="2" t="s">
         <v>2917</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" t="s">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>98</v>
       </c>
@@ -12899,8 +15248,11 @@
       <c r="J100" s="2" t="s">
         <v>2918</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" t="s">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>99</v>
       </c>
@@ -12931,8 +15283,11 @@
       <c r="J101" s="2" t="s">
         <v>2919</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101" t="s">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>100</v>
       </c>
@@ -12963,8 +15318,11 @@
       <c r="J102" s="2" t="s">
         <v>2870</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" t="s">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>101</v>
       </c>
@@ -12995,8 +15353,11 @@
       <c r="J103" s="2" t="s">
         <v>2871</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103" t="s">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>102</v>
       </c>
@@ -13027,8 +15388,11 @@
       <c r="J104" s="2" t="s">
         <v>2872</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>103</v>
       </c>
@@ -13059,8 +15423,11 @@
       <c r="J105" s="2" t="s">
         <v>2873</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K105" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>104</v>
       </c>
@@ -13091,8 +15458,11 @@
       <c r="J106" s="2" t="s">
         <v>2874</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>105</v>
       </c>
@@ -13123,8 +15493,11 @@
       <c r="J107" s="2" t="s">
         <v>2875</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107" t="s">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>106</v>
       </c>
@@ -13155,8 +15528,11 @@
       <c r="J108" s="2" t="s">
         <v>2876</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
@@ -13187,8 +15563,11 @@
       <c r="J109" s="2" t="s">
         <v>2877</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>108</v>
       </c>
@@ -13219,8 +15598,11 @@
       <c r="J110" s="2" t="s">
         <v>2878</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>109</v>
       </c>
@@ -13251,8 +15633,11 @@
       <c r="J111" s="2" t="s">
         <v>2879</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>110</v>
       </c>
@@ -13283,8 +15668,11 @@
       <c r="J112" s="2" t="s">
         <v>2880</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>111</v>
       </c>
@@ -13315,8 +15703,11 @@
       <c r="J113" s="2" t="s">
         <v>2881</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113" t="s">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>112</v>
       </c>
@@ -13347,8 +15738,11 @@
       <c r="J114" s="2" t="s">
         <v>2882</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>113</v>
       </c>
@@ -13379,8 +15773,11 @@
       <c r="J115" s="2" t="s">
         <v>2883</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115" t="s">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>114</v>
       </c>
@@ -13411,8 +15808,11 @@
       <c r="J116" s="2" t="s">
         <v>2884</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>115</v>
       </c>
@@ -13443,8 +15843,11 @@
       <c r="J117" s="2" t="s">
         <v>2885</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>116</v>
       </c>
@@ -13475,8 +15878,11 @@
       <c r="J118" s="2" t="s">
         <v>2886</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118" t="s">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>117</v>
       </c>
@@ -13507,8 +15913,11 @@
       <c r="J119" s="2" t="s">
         <v>2887</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119" t="s">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>118</v>
       </c>
@@ -13539,8 +15948,11 @@
       <c r="J120" s="2" t="s">
         <v>2888</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K120" t="s">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>119</v>
       </c>
@@ -13571,8 +15983,11 @@
       <c r="J121" s="2" t="s">
         <v>2889</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121" t="s">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>120</v>
       </c>
@@ -13603,8 +16018,11 @@
       <c r="J122" s="2" t="s">
         <v>2890</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K122" t="s">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>121</v>
       </c>
@@ -13635,8 +16053,11 @@
       <c r="J123" s="2" t="s">
         <v>2891</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K123" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>122</v>
       </c>
@@ -13667,8 +16088,11 @@
       <c r="J124" s="2" t="s">
         <v>2892</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K124" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>123</v>
       </c>
@@ -13699,8 +16123,11 @@
       <c r="J125" s="2" t="s">
         <v>2893</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K125" t="s">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>124</v>
       </c>
@@ -13731,8 +16158,11 @@
       <c r="J126" s="2" t="s">
         <v>2894</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>125</v>
       </c>
@@ -13763,8 +16193,11 @@
       <c r="J127" s="2" t="s">
         <v>2895</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K127" t="s">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>126</v>
       </c>
@@ -13795,8 +16228,11 @@
       <c r="J128" s="2" t="s">
         <v>2896</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K128" t="s">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>127</v>
       </c>
@@ -13827,8 +16263,11 @@
       <c r="J129" s="2" t="s">
         <v>2897</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K129" t="s">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>128</v>
       </c>
@@ -13859,8 +16298,11 @@
       <c r="J130" s="2" t="s">
         <v>2898</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K130" t="s">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>129</v>
       </c>
@@ -13891,8 +16333,11 @@
       <c r="J131" s="2" t="s">
         <v>2899</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K131" t="s">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>130</v>
       </c>
@@ -13923,8 +16368,11 @@
       <c r="J132" s="2" t="s">
         <v>2900</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K132" t="s">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>131</v>
       </c>
@@ -13955,8 +16403,11 @@
       <c r="J133" s="2" t="s">
         <v>2901</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133" t="s">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>132</v>
       </c>
@@ -13987,8 +16438,11 @@
       <c r="J134" s="2" t="s">
         <v>2902</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K134" t="s">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>133</v>
       </c>
@@ -14019,8 +16473,11 @@
       <c r="J135" s="2" t="s">
         <v>2903</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K135" t="s">
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>134</v>
       </c>
@@ -14051,8 +16508,11 @@
       <c r="J136" s="2" t="s">
         <v>2904</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K136" t="s">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>135</v>
       </c>
@@ -14083,8 +16543,11 @@
       <c r="J137" s="2" t="s">
         <v>2905</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K137" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>136</v>
       </c>
@@ -14115,8 +16578,11 @@
       <c r="J138" s="2" t="s">
         <v>2906</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K138" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>137</v>
       </c>
@@ -14147,8 +16613,11 @@
       <c r="J139" s="2" t="s">
         <v>2907</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K139" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>138</v>
       </c>
@@ -14179,8 +16648,11 @@
       <c r="J140" s="2" t="s">
         <v>2908</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K140" t="s">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>139</v>
       </c>
@@ -14211,8 +16683,11 @@
       <c r="J141" s="2" t="s">
         <v>2909</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K141" t="s">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>140</v>
       </c>
@@ -14243,8 +16718,11 @@
       <c r="J142" s="2" t="s">
         <v>2910</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K142" t="s">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>141</v>
       </c>
@@ -14275,8 +16753,11 @@
       <c r="J143" s="2" t="s">
         <v>2911</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K143" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>142</v>
       </c>
@@ -14307,8 +16788,11 @@
       <c r="J144" s="2" t="s">
         <v>2912</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K144" t="s">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>143</v>
       </c>
@@ -14339,8 +16823,11 @@
       <c r="J145" s="2" t="s">
         <v>2913</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K145" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>144</v>
       </c>
@@ -14371,8 +16858,11 @@
       <c r="J146" s="2" t="s">
         <v>2914</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K146" t="s">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>145</v>
       </c>
@@ -14403,8 +16893,11 @@
       <c r="J147" s="2" t="s">
         <v>2915</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K147" t="s">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>146</v>
       </c>
@@ -14435,8 +16928,11 @@
       <c r="J148" s="2" t="s">
         <v>2916</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K148" t="s">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>147</v>
       </c>
@@ -14467,8 +16963,11 @@
       <c r="J149" s="2" t="s">
         <v>2917</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K149" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>148</v>
       </c>
@@ -14499,8 +16998,11 @@
       <c r="J150" s="2" t="s">
         <v>2918</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K150" t="s">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>2920</v>
       </c>
@@ -14531,8 +17033,11 @@
       <c r="J151" s="2" t="s">
         <v>2919</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K151" t="s">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>150</v>
       </c>
@@ -14563,8 +17068,11 @@
       <c r="J152" s="2" t="s">
         <v>2870</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K152" t="s">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>151</v>
       </c>
@@ -14595,8 +17103,11 @@
       <c r="J153" s="2" t="s">
         <v>2871</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K153" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>152</v>
       </c>
@@ -14627,8 +17138,11 @@
       <c r="J154" s="2" t="s">
         <v>2872</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K154" t="s">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>153</v>
       </c>
@@ -14659,8 +17173,11 @@
       <c r="J155" s="2" t="s">
         <v>2873</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K155" t="s">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>154</v>
       </c>
@@ -14691,8 +17208,11 @@
       <c r="J156" s="2" t="s">
         <v>2874</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K156" t="s">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>155</v>
       </c>
@@ -14723,8 +17243,11 @@
       <c r="J157" s="2" t="s">
         <v>2875</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K157" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>156</v>
       </c>
@@ -14755,8 +17278,11 @@
       <c r="J158" s="2" t="s">
         <v>2876</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K158" t="s">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>157</v>
       </c>
@@ -14787,8 +17313,11 @@
       <c r="J159" s="2" t="s">
         <v>2877</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K159" t="s">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>158</v>
       </c>
@@ -14819,8 +17348,11 @@
       <c r="J160" s="2" t="s">
         <v>2878</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K160" t="s">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>159</v>
       </c>
@@ -14851,8 +17383,11 @@
       <c r="J161" s="2" t="s">
         <v>2879</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K161" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>160</v>
       </c>
@@ -14883,8 +17418,11 @@
       <c r="J162" s="2" t="s">
         <v>2880</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K162" t="s">
+        <v>3637</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>161</v>
       </c>
@@ -14915,8 +17453,11 @@
       <c r="J163" s="2" t="s">
         <v>2881</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K163" t="s">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>162</v>
       </c>
@@ -14947,8 +17488,11 @@
       <c r="J164" s="2" t="s">
         <v>2882</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K164" t="s">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>163</v>
       </c>
@@ -14979,8 +17523,11 @@
       <c r="J165" s="2" t="s">
         <v>2883</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K165" t="s">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>164</v>
       </c>
@@ -15011,8 +17558,11 @@
       <c r="J166" s="2" t="s">
         <v>2884</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K166" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>165</v>
       </c>
@@ -15043,8 +17593,11 @@
       <c r="J167" s="2" t="s">
         <v>2885</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K167" t="s">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>166</v>
       </c>
@@ -15075,8 +17628,11 @@
       <c r="J168" s="2" t="s">
         <v>2886</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K168" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>167</v>
       </c>
@@ -15107,8 +17663,11 @@
       <c r="J169" s="2" t="s">
         <v>2887</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K169" t="s">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>168</v>
       </c>
@@ -15139,8 +17698,11 @@
       <c r="J170" s="2" t="s">
         <v>2888</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K170" t="s">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>169</v>
       </c>
@@ -15171,8 +17733,11 @@
       <c r="J171" s="2" t="s">
         <v>2889</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K171" t="s">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>170</v>
       </c>
@@ -15203,8 +17768,11 @@
       <c r="J172" s="2" t="s">
         <v>2890</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K172" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>171</v>
       </c>
@@ -15235,8 +17803,11 @@
       <c r="J173" s="2" t="s">
         <v>2891</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K173" t="s">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>172</v>
       </c>
@@ -15267,8 +17838,11 @@
       <c r="J174" s="2" t="s">
         <v>2892</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K174" t="s">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>173</v>
       </c>
@@ -15299,8 +17873,11 @@
       <c r="J175" s="2" t="s">
         <v>2893</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K175" t="s">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>174</v>
       </c>
@@ -15331,8 +17908,11 @@
       <c r="J176" s="2" t="s">
         <v>2894</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K176" t="s">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>175</v>
       </c>
@@ -15363,8 +17943,11 @@
       <c r="J177" s="2" t="s">
         <v>2895</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K177" t="s">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>176</v>
       </c>
@@ -15395,8 +17978,11 @@
       <c r="J178" s="2" t="s">
         <v>2896</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K178" t="s">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>177</v>
       </c>
@@ -15427,8 +18013,11 @@
       <c r="J179" s="2" t="s">
         <v>2897</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K179" t="s">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>178</v>
       </c>
@@ -15459,8 +18048,11 @@
       <c r="J180" s="2" t="s">
         <v>2898</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K180" t="s">
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>179</v>
       </c>
@@ -15491,8 +18083,11 @@
       <c r="J181" s="2" t="s">
         <v>2899</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K181" t="s">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>180</v>
       </c>
@@ -15523,8 +18118,11 @@
       <c r="J182" s="2" t="s">
         <v>2900</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K182" t="s">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>181</v>
       </c>
@@ -15555,8 +18153,11 @@
       <c r="J183" s="2" t="s">
         <v>2901</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K183" t="s">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>182</v>
       </c>
@@ -15587,8 +18188,11 @@
       <c r="J184" s="2" t="s">
         <v>2902</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K184" t="s">
+        <v>3659</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>183</v>
       </c>
@@ -15619,8 +18223,11 @@
       <c r="J185" s="2" t="s">
         <v>2903</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K185" t="s">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>184</v>
       </c>
@@ -15651,8 +18258,11 @@
       <c r="J186" s="2" t="s">
         <v>2904</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K186" t="s">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>185</v>
       </c>
@@ -15683,8 +18293,11 @@
       <c r="J187" s="2" t="s">
         <v>2905</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K187" t="s">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>186</v>
       </c>
@@ -15715,8 +18328,11 @@
       <c r="J188" s="2" t="s">
         <v>2906</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K188" t="s">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>187</v>
       </c>
@@ -15747,8 +18363,11 @@
       <c r="J189" s="2" t="s">
         <v>2907</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K189" t="s">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>188</v>
       </c>
@@ -15779,8 +18398,11 @@
       <c r="J190" s="2" t="s">
         <v>2908</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K190" t="s">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>189</v>
       </c>
@@ -15811,8 +18433,11 @@
       <c r="J191" s="2" t="s">
         <v>2909</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K191" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>190</v>
       </c>
@@ -15843,8 +18468,11 @@
       <c r="J192" s="2" t="s">
         <v>2910</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K192" t="s">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>191</v>
       </c>
@@ -15875,8 +18503,11 @@
       <c r="J193" s="2" t="s">
         <v>2911</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K193" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>192</v>
       </c>
@@ -15907,8 +18538,11 @@
       <c r="J194" s="2" t="s">
         <v>2912</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K194" t="s">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>193</v>
       </c>
@@ -15939,8 +18573,11 @@
       <c r="J195" s="2" t="s">
         <v>2913</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K195" t="s">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>194</v>
       </c>
@@ -15971,8 +18608,11 @@
       <c r="J196" s="2" t="s">
         <v>2914</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K196" t="s">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>195</v>
       </c>
@@ -16003,8 +18643,11 @@
       <c r="J197" s="2" t="s">
         <v>2915</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K197" t="s">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>196</v>
       </c>
@@ -16035,8 +18678,11 @@
       <c r="J198" s="2" t="s">
         <v>2916</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K198" t="s">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>197</v>
       </c>
@@ -16067,8 +18713,11 @@
       <c r="J199" s="2" t="s">
         <v>2917</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K199" t="s">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>198</v>
       </c>
@@ -16099,8 +18748,11 @@
       <c r="J200" s="2" t="s">
         <v>2918</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K200" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>199</v>
       </c>
@@ -16131,8 +18783,11 @@
       <c r="J201" s="2" t="s">
         <v>2919</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K201" t="s">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>2921</v>
       </c>
@@ -16163,8 +18818,11 @@
       <c r="J202" s="2" t="s">
         <v>2870</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K202" t="s">
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>201</v>
       </c>
@@ -16195,8 +18853,11 @@
       <c r="J203" s="2" t="s">
         <v>2871</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K203" t="s">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>202</v>
       </c>
@@ -16227,8 +18888,11 @@
       <c r="J204" s="2" t="s">
         <v>2872</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K204" t="s">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>203</v>
       </c>
@@ -16259,8 +18923,11 @@
       <c r="J205" s="2" t="s">
         <v>2873</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K205" t="s">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>2922</v>
       </c>
@@ -16291,8 +18958,11 @@
       <c r="J206" s="2" t="s">
         <v>2874</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K206" t="s">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>204</v>
       </c>
@@ -16323,8 +18993,11 @@
       <c r="J207" s="2" t="s">
         <v>2875</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K207" t="s">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>205</v>
       </c>
@@ -16355,8 +19028,11 @@
       <c r="J208" s="2" t="s">
         <v>2876</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K208" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>206</v>
       </c>
@@ -16387,8 +19063,11 @@
       <c r="J209" s="2" t="s">
         <v>2877</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K209" t="s">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>207</v>
       </c>
@@ -16419,8 +19098,11 @@
       <c r="J210" s="2" t="s">
         <v>2878</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K210" t="s">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>208</v>
       </c>
@@ -16451,8 +19133,11 @@
       <c r="J211" s="2" t="s">
         <v>2879</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K211" t="s">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>209</v>
       </c>
@@ -16483,8 +19168,11 @@
       <c r="J212" s="2" t="s">
         <v>2880</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K212" t="s">
+        <v>3687</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>210</v>
       </c>
@@ -16515,8 +19203,11 @@
       <c r="J213" s="2" t="s">
         <v>2881</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K213" t="s">
+        <v>3688</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>211</v>
       </c>
@@ -16547,8 +19238,11 @@
       <c r="J214" s="2" t="s">
         <v>2882</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K214" t="s">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>212</v>
       </c>
@@ -16579,8 +19273,11 @@
       <c r="J215" s="2" t="s">
         <v>2883</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K215" t="s">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>213</v>
       </c>
@@ -16611,8 +19308,11 @@
       <c r="J216" s="2" t="s">
         <v>2884</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K216" t="s">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>2923</v>
       </c>
@@ -16643,8 +19343,11 @@
       <c r="J217" s="2" t="s">
         <v>2885</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K217" t="s">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>2924</v>
       </c>
@@ -16675,8 +19378,11 @@
       <c r="J218" s="2" t="s">
         <v>2886</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K218" t="s">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>2925</v>
       </c>
@@ -16707,8 +19413,11 @@
       <c r="J219" s="2" t="s">
         <v>2887</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K219" t="s">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>2926</v>
       </c>
@@ -16739,8 +19448,11 @@
       <c r="J220" s="2" t="s">
         <v>2888</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K220" t="s">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>2927</v>
       </c>
@@ -16771,8 +19483,11 @@
       <c r="J221" s="2" t="s">
         <v>2889</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K221" t="s">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>2928</v>
       </c>
@@ -16803,8 +19518,11 @@
       <c r="J222" s="2" t="s">
         <v>2890</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K222" t="s">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>2929</v>
       </c>
@@ -16835,8 +19553,11 @@
       <c r="J223" s="2" t="s">
         <v>2891</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K223" t="s">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>2930</v>
       </c>
@@ -16867,8 +19588,11 @@
       <c r="J224" s="2" t="s">
         <v>2892</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K224" t="s">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>2931</v>
       </c>
@@ -16899,8 +19623,11 @@
       <c r="J225" s="2" t="s">
         <v>2893</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K225" t="s">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>2932</v>
       </c>
@@ -16931,8 +19658,11 @@
       <c r="J226" s="2" t="s">
         <v>2894</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K226" t="s">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>727</v>
       </c>
@@ -16963,8 +19693,11 @@
       <c r="J227" s="2" t="s">
         <v>2895</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K227" t="s">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>728</v>
       </c>
@@ -16995,8 +19728,11 @@
       <c r="J228" s="2" t="s">
         <v>2896</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K228" t="s">
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>729</v>
       </c>
@@ -17027,8 +19763,11 @@
       <c r="J229" s="2" t="s">
         <v>2897</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K229" t="s">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>730</v>
       </c>
@@ -17059,8 +19798,11 @@
       <c r="J230" s="2" t="s">
         <v>2898</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K230" t="s">
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>731</v>
       </c>
@@ -17091,8 +19833,11 @@
       <c r="J231" s="2" t="s">
         <v>2899</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K231" t="s">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>732</v>
       </c>
@@ -17123,8 +19868,11 @@
       <c r="J232" s="2" t="s">
         <v>2900</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K232" t="s">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>733</v>
       </c>
@@ -17155,8 +19903,11 @@
       <c r="J233" s="2" t="s">
         <v>2901</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K233" t="s">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>734</v>
       </c>
@@ -17187,8 +19938,11 @@
       <c r="J234" s="2" t="s">
         <v>2902</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K234" t="s">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>735</v>
       </c>
@@ -17219,8 +19973,11 @@
       <c r="J235" s="2" t="s">
         <v>2903</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K235" t="s">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>736</v>
       </c>
@@ -17251,8 +20008,11 @@
       <c r="J236" s="2" t="s">
         <v>2904</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K236" t="s">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>590</v>
       </c>
@@ -17283,8 +20043,11 @@
       <c r="J237" s="2" t="s">
         <v>2905</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K237" t="s">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>591</v>
       </c>
@@ -17315,8 +20078,11 @@
       <c r="J238" s="2" t="s">
         <v>2906</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K238" t="s">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>592</v>
       </c>
@@ -17347,8 +20113,11 @@
       <c r="J239" s="2" t="s">
         <v>2907</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K239" t="s">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>593</v>
       </c>
@@ -17379,8 +20148,11 @@
       <c r="J240" s="2" t="s">
         <v>2908</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K240" t="s">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>594</v>
       </c>
@@ -17411,8 +20183,11 @@
       <c r="J241" s="2" t="s">
         <v>2909</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K241" t="s">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>595</v>
       </c>
@@ -17443,8 +20218,11 @@
       <c r="J242" s="2" t="s">
         <v>2910</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K242" t="s">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>596</v>
       </c>
@@ -17475,8 +20253,11 @@
       <c r="J243" s="2" t="s">
         <v>2911</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K243" t="s">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>597</v>
       </c>
@@ -17507,8 +20288,11 @@
       <c r="J244" s="2" t="s">
         <v>2912</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K244" t="s">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>598</v>
       </c>
@@ -17539,8 +20323,11 @@
       <c r="J245" s="2" t="s">
         <v>2913</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K245" t="s">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>599</v>
       </c>
@@ -17571,8 +20358,11 @@
       <c r="J246" s="2" t="s">
         <v>2914</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K246" t="s">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>2933</v>
       </c>
@@ -17603,8 +20393,11 @@
       <c r="J247" s="2" t="s">
         <v>2915</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K247" t="s">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>2934</v>
       </c>
@@ -17635,8 +20428,11 @@
       <c r="J248" s="2" t="s">
         <v>2916</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K248" t="s">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>2935</v>
       </c>
@@ -17667,8 +20463,11 @@
       <c r="J249" s="2" t="s">
         <v>2917</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K249" t="s">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>610</v>
       </c>
@@ -17699,8 +20498,11 @@
       <c r="J250" s="2" t="s">
         <v>2918</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K250" t="s">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>2936</v>
       </c>
@@ -17731,8 +20533,11 @@
       <c r="J251" s="2" t="s">
         <v>2919</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K251" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>2937</v>
       </c>
@@ -17763,8 +20568,11 @@
       <c r="J252" s="2" t="s">
         <v>2870</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K252" t="s">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>2938</v>
       </c>
@@ -17795,8 +20603,11 @@
       <c r="J253" s="2" t="s">
         <v>2871</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K253" t="s">
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>2939</v>
       </c>
@@ -17827,8 +20638,11 @@
       <c r="J254" s="2" t="s">
         <v>2872</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K254" t="s">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>2940</v>
       </c>
@@ -17859,8 +20673,11 @@
       <c r="J255" s="2" t="s">
         <v>2873</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K255" t="s">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>2941</v>
       </c>
@@ -17891,8 +20708,11 @@
       <c r="J256" s="2" t="s">
         <v>2874</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K256" t="s">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>2942</v>
       </c>
@@ -17923,8 +20743,11 @@
       <c r="J257" s="2" t="s">
         <v>2875</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K257" t="s">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>2943</v>
       </c>
@@ -17955,8 +20778,11 @@
       <c r="J258" s="2" t="s">
         <v>2876</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K258" t="s">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>2944</v>
       </c>
@@ -17987,8 +20813,11 @@
       <c r="J259" s="2" t="s">
         <v>2877</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K259" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>2945</v>
       </c>
@@ -18019,8 +20848,11 @@
       <c r="J260" s="2" t="s">
         <v>2878</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K260" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>2946</v>
       </c>
@@ -18051,8 +20883,11 @@
       <c r="J261" s="2" t="s">
         <v>2879</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K261" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>2947</v>
       </c>
@@ -18083,8 +20918,11 @@
       <c r="J262" s="2" t="s">
         <v>2880</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K262" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>2948</v>
       </c>
@@ -18115,8 +20953,11 @@
       <c r="J263" s="2" t="s">
         <v>2881</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K263" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>2949</v>
       </c>
@@ -18147,8 +20988,11 @@
       <c r="J264" s="2" t="s">
         <v>2882</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K264" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>2950</v>
       </c>
@@ -18179,8 +21023,11 @@
       <c r="J265" s="2" t="s">
         <v>2883</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K265" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>2951</v>
       </c>
@@ -18211,8 +21058,11 @@
       <c r="J266" s="2" t="s">
         <v>2884</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K266" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>2952</v>
       </c>
@@ -18243,8 +21093,11 @@
       <c r="J267" s="2" t="s">
         <v>2885</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K267" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>224</v>
       </c>
@@ -18275,8 +21128,11 @@
       <c r="J268" s="2" t="s">
         <v>2886</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K268" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>225</v>
       </c>
@@ -18307,8 +21163,11 @@
       <c r="J269" s="2" t="s">
         <v>2887</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K269" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>226</v>
       </c>
@@ -18339,8 +21198,11 @@
       <c r="J270" s="2" t="s">
         <v>2888</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K270" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>227</v>
       </c>
@@ -18371,8 +21233,11 @@
       <c r="J271" s="2" t="s">
         <v>2889</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K271" t="s">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>228</v>
       </c>
@@ -18403,8 +21268,11 @@
       <c r="J272" s="2" t="s">
         <v>2890</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K272" t="s">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>229</v>
       </c>
@@ -18435,8 +21303,11 @@
       <c r="J273" s="2" t="s">
         <v>2891</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K273" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>230</v>
       </c>
@@ -18467,8 +21338,11 @@
       <c r="J274" s="2" t="s">
         <v>2892</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K274" t="s">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>231</v>
       </c>
@@ -18499,8 +21373,11 @@
       <c r="J275" s="2" t="s">
         <v>2893</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K275" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>232</v>
       </c>
@@ -18531,8 +21408,11 @@
       <c r="J276" s="2" t="s">
         <v>2894</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K276" t="s">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>679</v>
       </c>
@@ -18563,8 +21443,11 @@
       <c r="J277" s="2" t="s">
         <v>2895</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K277" t="s">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>680</v>
       </c>
@@ -18595,8 +21478,11 @@
       <c r="J278" s="2" t="s">
         <v>2896</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K278" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>681</v>
       </c>
@@ -18627,8 +21513,11 @@
       <c r="J279" s="2" t="s">
         <v>2897</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K279" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>682</v>
       </c>
@@ -18659,8 +21548,11 @@
       <c r="J280" s="2" t="s">
         <v>2898</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K280" t="s">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>683</v>
       </c>
@@ -18691,8 +21583,11 @@
       <c r="J281" s="2" t="s">
         <v>2899</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K281" t="s">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>684</v>
       </c>
@@ -18723,8 +21618,11 @@
       <c r="J282" s="2" t="s">
         <v>2900</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K282" t="s">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>685</v>
       </c>
@@ -18755,8 +21653,11 @@
       <c r="J283" s="2" t="s">
         <v>2901</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K283" t="s">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>686</v>
       </c>
@@ -18787,8 +21688,11 @@
       <c r="J284" s="2" t="s">
         <v>2902</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K284" t="s">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>687</v>
       </c>
@@ -18819,8 +21723,11 @@
       <c r="J285" s="2" t="s">
         <v>2903</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K285" t="s">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>688</v>
       </c>
@@ -18851,8 +21758,11 @@
       <c r="J286" s="2" t="s">
         <v>2904</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K286" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>526</v>
       </c>
@@ -18883,8 +21793,11 @@
       <c r="J287" s="2" t="s">
         <v>2905</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K287" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>527</v>
       </c>
@@ -18915,8 +21828,11 @@
       <c r="J288" s="2" t="s">
         <v>2906</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K288" t="s">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>528</v>
       </c>
@@ -18947,8 +21863,11 @@
       <c r="J289" s="2" t="s">
         <v>2907</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K289" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>529</v>
       </c>
@@ -18979,8 +21898,11 @@
       <c r="J290" s="2" t="s">
         <v>2908</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K290" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>530</v>
       </c>
@@ -19011,8 +21933,11 @@
       <c r="J291" s="2" t="s">
         <v>2909</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K291" t="s">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>531</v>
       </c>
@@ -19043,8 +21968,11 @@
       <c r="J292" s="2" t="s">
         <v>2910</v>
       </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K292" t="s">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>532</v>
       </c>
@@ -19075,8 +22003,11 @@
       <c r="J293" s="2" t="s">
         <v>2911</v>
       </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K293" t="s">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>533</v>
       </c>
@@ -19107,8 +22038,11 @@
       <c r="J294" s="2" t="s">
         <v>2912</v>
       </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K294" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>534</v>
       </c>
@@ -19139,8 +22073,11 @@
       <c r="J295" s="2" t="s">
         <v>2913</v>
       </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K295" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>535</v>
       </c>
@@ -19171,8 +22108,11 @@
       <c r="J296" s="2" t="s">
         <v>2914</v>
       </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K296" t="s">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>2953</v>
       </c>
@@ -19203,8 +22143,11 @@
       <c r="J297" s="2" t="s">
         <v>2915</v>
       </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K297" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>2954</v>
       </c>
@@ -19235,8 +22178,11 @@
       <c r="J298" s="2" t="s">
         <v>2916</v>
       </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K298" t="s">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>2955</v>
       </c>
@@ -19267,8 +22213,11 @@
       <c r="J299" s="2" t="s">
         <v>2917</v>
       </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K299" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>2956</v>
       </c>
@@ -19299,8 +22248,11 @@
       <c r="J300" s="2" t="s">
         <v>2918</v>
       </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K300" t="s">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>2957</v>
       </c>
@@ -19331,8 +22283,11 @@
       <c r="J301" s="2" t="s">
         <v>2919</v>
       </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K301" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>2958</v>
       </c>
@@ -19364,7 +22319,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>2959</v>
       </c>
@@ -19396,7 +22351,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>2960</v>
       </c>
@@ -25755,10 +28710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E401"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25785,7 +28740,7 @@
         <v>3010</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>3030</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -25799,10 +28754,10 @@
         <v>3000</v>
       </c>
       <c r="D2" t="s">
-        <v>3011</v>
+        <v>3079</v>
       </c>
       <c r="E2" t="s">
-        <v>3031</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -25816,10 +28771,10 @@
         <v>3001</v>
       </c>
       <c r="D3" t="s">
-        <v>3012</v>
+        <v>3080</v>
       </c>
       <c r="E3" t="s">
-        <v>3032</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -25833,7 +28788,7 @@
         <v>3002</v>
       </c>
       <c r="D4" t="s">
-        <v>3013</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -25847,7 +28802,7 @@
         <v>3003</v>
       </c>
       <c r="D5" t="s">
-        <v>3014</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -25861,7 +28816,7 @@
         <v>3004</v>
       </c>
       <c r="D6" t="s">
-        <v>3015</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -25872,7 +28827,7 @@
         <v>2996</v>
       </c>
       <c r="D7" t="s">
-        <v>3048</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -25880,10 +28835,10 @@
         <v>3006</v>
       </c>
       <c r="B8" t="s">
-        <v>3026</v>
+        <v>3021</v>
       </c>
       <c r="D8" t="s">
-        <v>3049</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -25891,10 +28846,10 @@
         <v>3007</v>
       </c>
       <c r="B9" t="s">
-        <v>3027</v>
+        <v>3022</v>
       </c>
       <c r="D9" t="s">
-        <v>3050</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -25902,10 +28857,10 @@
         <v>3008</v>
       </c>
       <c r="B10" t="s">
-        <v>3028</v>
+        <v>3023</v>
       </c>
       <c r="D10" t="s">
-        <v>3051</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -25913,302 +28868,2143 @@
         <v>3009</v>
       </c>
       <c r="B11" t="s">
-        <v>3029</v>
+        <v>3024</v>
       </c>
       <c r="D11" t="s">
-        <v>3052</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3016</v>
+        <v>3011</v>
       </c>
       <c r="B12" t="s">
-        <v>3038</v>
+        <v>3033</v>
       </c>
       <c r="D12" t="s">
-        <v>3079</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3017</v>
+        <v>3012</v>
       </c>
       <c r="B13" t="s">
-        <v>3039</v>
+        <v>3034</v>
       </c>
       <c r="D13" t="s">
-        <v>3080</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3018</v>
+        <v>3013</v>
       </c>
       <c r="B14" t="s">
-        <v>3040</v>
+        <v>3035</v>
       </c>
       <c r="D14" t="s">
-        <v>3081</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3019</v>
+        <v>3014</v>
       </c>
       <c r="B15" t="s">
-        <v>3041</v>
+        <v>3036</v>
       </c>
       <c r="D15" t="s">
-        <v>3082</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3037</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3060</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3061</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3063</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>3020</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3065</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3066</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3067</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3068</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3032</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3038</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3039</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3040</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3041</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>3042</v>
       </c>
-      <c r="D16" t="s">
-        <v>3083</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3021</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D31" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3043</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3044</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3045</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3046</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3047</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>3048</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3049</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3050</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3051</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>3052</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>3053</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>3055</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>3057</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>3058</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>3059</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>3069</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>3070</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>3022</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D50" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>3071</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3023</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D51" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>3072</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3024</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D52" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>3073</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>3025</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D53" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>3074</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>3033</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D54" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>3075</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>3034</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D55" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>3076</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>3035</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D56" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>3077</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>3036</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="D57" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>3078</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>3037</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>3043</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>3044</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>3045</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>3046</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>3047</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>3054</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>3055</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>3056</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>3057</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>3058</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>3059</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>3060</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>3061</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>3062</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>3063</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>3064</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>3065</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>3066</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>3067</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>3068</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>3069</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>3084</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>3085</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>3086</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>3087</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>3088</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>3089</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>3090</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>3091</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>3092</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>3093</v>
+      <c r="D58" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D223" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D225" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D228" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D229" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D230" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D232" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D236" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D237" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D238" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D239" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D240" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D241" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D242" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D243" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D244" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D245" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D246" t="s">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D247" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D248" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D249" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D250" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D251" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D252" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D253" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D254" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D255" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D256" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D257" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D258" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D259" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D260" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D261" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D262" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D263" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D264" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D265" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D266" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D267" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D268" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D269" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D270" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D271" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D272" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D273" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D274" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D275" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D276" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D277" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D278" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D279" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D280" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D281" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D282" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D283" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D284" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D285" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D286" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D287" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D288" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D289" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D290" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="291" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D291" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="292" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D292" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="293" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D293" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="294" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D294" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="295" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D295" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="296" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D296" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="297" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D297" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="298" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D298" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="299" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D299" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="300" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D300" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="301" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D301" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="302" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D302" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="303" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D303" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="304" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D304" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="305" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D305" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="306" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D306" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="307" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D307" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="308" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D308" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="309" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D309" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="310" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D310" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="311" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D311" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="312" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D312" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="313" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D313" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="314" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D314" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="315" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D315" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="316" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D316" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="317" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D317" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="318" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D318" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="319" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D319" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="320" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D320" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D321" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D322" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D323" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D324" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D325" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D326" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D327" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="328" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D328" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="329" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D329" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="330" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D330" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="331" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D331" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="332" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D332" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="333" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D333" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="334" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D334" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="335" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D335" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="336" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D336" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="337" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D337" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="338" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D338" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="339" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D339" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="340" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D340" t="s">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="341" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D341" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="342" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D342" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="343" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D343" t="s">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="344" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D344" t="s">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="345" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D345" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="346" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D346" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="347" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D347" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="348" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D348" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="349" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D349" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="350" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D350" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="351" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D351" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="352" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D352" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="353" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D353" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="354" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D354" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="355" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D355" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="356" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D356" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="357" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D357" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="358" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D358" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="359" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D359" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="360" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D360" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="361" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D361" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="362" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D362" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="363" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D363" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="364" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D364" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="365" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D365" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="366" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D366" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="367" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D367" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="368" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D368" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="369" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D369" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="370" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D370" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="371" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D371" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="372" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D372" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="373" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D373" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="374" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D374" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="375" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D375" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="376" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D376" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="377" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D377" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="378" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D378" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="379" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D379" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="380" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D380" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="381" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D381" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="382" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D382" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="383" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D383" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="384" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D384" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="385" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D385" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="386" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D386" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="387" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D387" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="388" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D388" t="s">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="389" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D389" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="390" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D390" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="391" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D391" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="392" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D392" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="393" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D393" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="394" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D394" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="395" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D395" t="s">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="396" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D396" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="397" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D397" t="s">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="398" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D398" t="s">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="399" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D399" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="400" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D400" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="401" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D401" t="s">
+        <v>3477</v>
       </c>
     </row>
   </sheetData>
